--- a/outcome/appendix/forecast/Typhus.xlsx
+++ b/outcome/appendix/forecast/Typhus.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Typhus</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase</t>
+    <t xml:space="preserve">Decrease</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease</t>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>49.1460216757719</v>
+        <v>67.5394652975752</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.4149117811751</v>
+        <v>34.721114491011</v>
       </c>
       <c r="D2" t="n">
-        <v>-73.2094592544707</v>
+        <v>26.3317297871895</v>
       </c>
       <c r="E2" t="n">
-        <v>116.932467442974</v>
+        <v>188.844015979125</v>
       </c>
       <c r="F2" t="n">
-        <v>156.72701491627</v>
+        <v>466.286731637728</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.85397832422811</v>
+        <v>8.53946529757525</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>35.9640523552277</v>
+        <v>48.2105283437132</v>
       </c>
       <c r="C3" t="n">
-        <v>-166.091516755823</v>
+        <v>25.2266038495012</v>
       </c>
       <c r="D3" t="n">
-        <v>-275.81213848667</v>
+        <v>19.2418151884071</v>
       </c>
       <c r="E3" t="n">
-        <v>248.442859722436</v>
+        <v>129.234010043417</v>
       </c>
       <c r="F3" t="n">
-        <v>358.163481453282</v>
+        <v>300.634535927395</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.03594764477226</v>
+        <v>7.2105283437132</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>53.974429431631</v>
+        <v>58.8668564013952</v>
       </c>
       <c r="C4" t="n">
-        <v>-15671.4146945221</v>
+        <v>28.3325304319418</v>
       </c>
       <c r="D4" t="n">
-        <v>-24001.3558212111</v>
+        <v>21.0432883442141</v>
       </c>
       <c r="E4" t="n">
-        <v>15799.8520243564</v>
+        <v>195.029543004995</v>
       </c>
       <c r="F4" t="n">
-        <v>24129.7931510455</v>
+        <v>635.022995426327</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>24.974429431631</v>
+        <v>29.8668564013952</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>57.0398359757099</v>
+        <v>63.815723683252</v>
       </c>
       <c r="C5" t="n">
-        <v>-647884.065878182</v>
+        <v>29.6874031734759</v>
       </c>
       <c r="D5" t="n">
-        <v>-990886.420001945</v>
+        <v>21.8214643751438</v>
       </c>
       <c r="E5" t="n">
-        <v>648009.675464836</v>
+        <v>232.809943031024</v>
       </c>
       <c r="F5" t="n">
-        <v>991012.029588599</v>
+        <v>916.90610910382</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.96016402429007</v>
+        <v>0.815723683251974</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>98.9057021355906</v>
+        <v>102.356092334741</v>
       </c>
       <c r="C6" t="n">
-        <v>-48224868.9440203</v>
+        <v>40.093671918249</v>
       </c>
       <c r="D6" t="n">
-        <v>-73753629.0782939</v>
+        <v>28.0590592332012</v>
       </c>
       <c r="E6" t="n">
-        <v>48225082.738572</v>
+        <v>692.019428960978</v>
       </c>
       <c r="F6" t="n">
-        <v>73753842.8728456</v>
+        <v>65050.0859762377</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,10 +576,10 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>31.9057021355906</v>
+        <v>35.3560923347409</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108.679202403036</v>
+        <v>104.116733261902</v>
       </c>
       <c r="C7" t="n">
-        <v>-2775500646.84515</v>
+        <v>40.4721722515725</v>
       </c>
       <c r="D7" t="n">
-        <v>-4244762001.22356</v>
+        <v>28.2657350540756</v>
       </c>
       <c r="E7" t="n">
-        <v>2775500886.07477</v>
+        <v>728.463666832018</v>
       </c>
       <c r="F7" t="n">
-        <v>4244762240.45319</v>
+        <v>127806.406502919</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>113</v>
       </c>
       <c r="I7" t="n">
-        <v>-4.32079759696445</v>
+        <v>-8.8832667380975</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>117.344783046138</v>
+        <v>99.8143926086226</v>
       </c>
       <c r="C8" t="n">
-        <v>-164075736261.518</v>
+        <v>39.4248826481263</v>
       </c>
       <c r="D8" t="n">
-        <v>-250932184509.779</v>
+        <v>27.6531090888513</v>
       </c>
       <c r="E8" t="n">
-        <v>164075736540.303</v>
+        <v>650.70481572106</v>
       </c>
       <c r="F8" t="n">
-        <v>250932184788.563</v>
+        <v>37555.753706673</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>138</v>
       </c>
       <c r="I8" t="n">
-        <v>-20.6552169538617</v>
+        <v>-38.1856073913774</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -651,20 +651,18 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>130.325269643052</v>
+        <v>113.918389092879</v>
       </c>
       <c r="C9" t="n">
-        <v>-8050623607496.88</v>
+        <v>42.7155272213765</v>
       </c>
       <c r="D9" t="n">
-        <v>-12312366312917.3</v>
+        <v>29.5493031505696</v>
       </c>
       <c r="E9" t="n">
-        <v>8050623607779.78</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12312366313200.2</v>
-      </c>
+        <v>946.623999434732</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -672,10 +670,10 @@
         <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.67473035694826</v>
+        <v>-24.0816109071211</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -683,20 +681,18 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>130.587182892116</v>
+        <v>119.393936703708</v>
       </c>
       <c r="C10" t="n">
-        <v>-254852671757306</v>
+        <v>43.9262152758378</v>
       </c>
       <c r="D10" t="n">
-        <v>-389763526835497</v>
+        <v>30.2370892024539</v>
       </c>
       <c r="E10" t="n">
-        <v>254852671757568</v>
-      </c>
-      <c r="F10" t="n">
-        <v>389763526835760</v>
-      </c>
+        <v>1095.13220828011</v>
+      </c>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,10 +700,10 @@
         <v>184</v>
       </c>
       <c r="I10" t="n">
-        <v>-53.4128171078839</v>
+        <v>-64.6060632962916</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -715,20 +711,18 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>160.299602794038</v>
+        <v>131.260036707646</v>
       </c>
       <c r="C11" t="n">
-        <v>-12140164049605632</v>
+        <v>46.4390272111378</v>
       </c>
       <c r="D11" t="n">
-        <v>-18566778694951384</v>
+        <v>31.6493452209923</v>
       </c>
       <c r="E11" t="n">
-        <v>12140164049605980</v>
-      </c>
-      <c r="F11" t="n">
-        <v>18566778694951736</v>
-      </c>
+        <v>1507.22273554215</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,10 +730,10 @@
         <v>192</v>
       </c>
       <c r="I11" t="n">
-        <v>-31.7003972059621</v>
+        <v>-60.739963292354</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,20 +741,18 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>132.353718499867</v>
+        <v>120.987462975993</v>
       </c>
       <c r="C12" t="n">
-        <v>-311996955572924096</v>
+        <v>44.2717814221501</v>
       </c>
       <c r="D12" t="n">
-        <v>-477158167216793856</v>
+        <v>30.4323699684732</v>
       </c>
       <c r="E12" t="n">
-        <v>311996955572924352</v>
-      </c>
-      <c r="F12" t="n">
-        <v>477158167216794112</v>
-      </c>
+        <v>1142.79518929042</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +760,7 @@
         <v>131</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3537184998672</v>
+        <v>-10.0125370240071</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +771,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>77.3186264807038</v>
+        <v>67.7287105538647</v>
       </c>
       <c r="C13" t="n">
-        <v>-7896346436036508672</v>
+        <v>30.7645975560364</v>
       </c>
       <c r="D13" t="n">
-        <v>-12076419740087431168</v>
+        <v>22.4519925290143</v>
       </c>
       <c r="E13" t="n">
-        <v>7896346436036508672</v>
+        <v>265.460799901261</v>
       </c>
       <c r="F13" t="n">
-        <v>12076419740087431168</v>
+        <v>1229.73020621615</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,10 +792,10 @@
         <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>22.3186264807038</v>
+        <v>12.7287105538647</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -811,19 +803,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>49.7032294076162</v>
+        <v>71.2677417917761</v>
       </c>
       <c r="C14" t="n">
-        <v>-205138944293140758528</v>
+        <v>28.7943461670449</v>
       </c>
       <c r="D14" t="n">
-        <v>-313732941733222481920</v>
+        <v>20.3219233006227</v>
       </c>
       <c r="E14" t="n">
-        <v>205138944293140758528</v>
+        <v>422.515622232898</v>
       </c>
       <c r="F14" t="n">
-        <v>313732941733222481920</v>
+        <v>10321.5156327062</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,10 +824,10 @@
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>4.70322940761623</v>
+        <v>26.2677417917761</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -843,19 +835,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>33.7975055335171</v>
+        <v>55.4284642827758</v>
       </c>
       <c r="C15" t="n">
-        <v>-6135053132694850371584</v>
+        <v>23.870398658538</v>
       </c>
       <c r="D15" t="n">
-        <v>-9382754082323392626688</v>
+        <v>17.1514334008944</v>
       </c>
       <c r="E15" t="n">
-        <v>6135053132694850371584</v>
+        <v>258.610242521943</v>
       </c>
       <c r="F15" t="n">
-        <v>9382754082323392626688</v>
+        <v>1972.230713187</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +856,7 @@
         <v>37</v>
       </c>
       <c r="I15" t="n">
-        <v>-3.20249446648291</v>
+        <v>18.4284642827758</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +867,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>50.1869763933148</v>
+        <v>64.4143476342764</v>
       </c>
       <c r="C16" t="n">
-        <v>-516217975975971016146944</v>
+        <v>26.0195586489093</v>
       </c>
       <c r="D16" t="n">
-        <v>-789487265504693623717888</v>
+        <v>18.3624604023013</v>
       </c>
       <c r="E16" t="n">
-        <v>516217975975971016146944</v>
+        <v>382.231563643286</v>
       </c>
       <c r="F16" t="n">
-        <v>789487265504693623717888</v>
+        <v>9398.03540105675</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +888,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>15.1869763933148</v>
+        <v>29.4143476342764</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +899,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>54.6019437848384</v>
+        <v>68.3709039043147</v>
       </c>
       <c r="C17" t="n">
-        <v>-20804379517899094085337088</v>
+        <v>26.9144278378744</v>
       </c>
       <c r="D17" t="n">
-        <v>-31817552779046487328817152</v>
+        <v>18.8609192579718</v>
       </c>
       <c r="E17" t="n">
-        <v>20804379517899094085337088</v>
+        <v>452.292305268297</v>
       </c>
       <c r="F17" t="n">
-        <v>31817552779046487328817152</v>
+        <v>31263.4168261986</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +920,10 @@
         <v>105</v>
       </c>
       <c r="I17" t="n">
-        <v>-50.3980562151616</v>
+        <v>-36.6290960956853</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,20 +931,18 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>94.5775747483254</v>
+        <v>95.5961052807623</v>
       </c>
       <c r="C18" t="n">
-        <v>-1695456330069596168364490752</v>
+        <v>32.8015292063668</v>
       </c>
       <c r="D18" t="n">
-        <v>-2592976696091604376851841024</v>
+        <v>22.1850330975252</v>
       </c>
       <c r="E18" t="n">
-        <v>1695456330069596168364490752</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2592976696091604376851841024</v>
-      </c>
+        <v>1340.80128555387</v>
+      </c>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,10 +950,10 @@
         <v>111</v>
       </c>
       <c r="I18" t="n">
-        <v>-16.4224252516746</v>
+        <v>-15.4038947192377</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -971,20 +961,18 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>104.198955408378</v>
+        <v>96.7155138363487</v>
       </c>
       <c r="C19" t="n">
-        <v>-84949612719056839814940721152</v>
+        <v>33.0077379846841</v>
       </c>
       <c r="D19" t="n">
-        <v>-129919221283322284273746051072</v>
+        <v>22.2949489980062</v>
       </c>
       <c r="E19" t="n">
-        <v>84949612719056839814940721152</v>
-      </c>
-      <c r="F19" t="n">
-        <v>129919221283322284273746051072</v>
-      </c>
+        <v>1408.67062517497</v>
+      </c>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,10 +980,10 @@
         <v>112</v>
       </c>
       <c r="I19" t="n">
-        <v>-7.80104459162177</v>
+        <v>-15.2844861636513</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1003,20 +991,18 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>115.711598586087</v>
+        <v>93.9634236947013</v>
       </c>
       <c r="C20" t="n">
-        <v>-3720234850660464776307573522432</v>
+        <v>32.462795537071</v>
       </c>
       <c r="D20" t="n">
-        <v>-5689608219725977966198483058688</v>
+        <v>21.9931560886917</v>
       </c>
       <c r="E20" t="n">
-        <v>3720234850660464776307573522432</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5689608219725977966198483058688</v>
-      </c>
+        <v>1257.56186691646</v>
+      </c>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1010,7 @@
         <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>14.7115985860875</v>
+        <v>-7.03657630529865</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,20 +1021,18 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>128.22392150007</v>
+        <v>102.785324652507</v>
       </c>
       <c r="C21" t="n">
-        <v>-143396498775304988555856861724672</v>
+        <v>34.1598467708788</v>
       </c>
       <c r="D21" t="n">
-        <v>-219306019878572332074636857573376</v>
+        <v>22.9241507827424</v>
       </c>
       <c r="E21" t="n">
-        <v>143396498775304988555856861724672</v>
-      </c>
-      <c r="F21" t="n">
-        <v>219306019878572332074636857573376</v>
-      </c>
+        <v>1828.52861718167</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,10 +1040,10 @@
         <v>143</v>
       </c>
       <c r="I21" t="n">
-        <v>-14.7760784999298</v>
+        <v>-40.2146753474929</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1067,20 +1051,18 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>126.776786067184</v>
+        <v>106.063162184025</v>
       </c>
       <c r="C22" t="n">
-        <v>-4175967677548841694515838370971648</v>
+        <v>34.7657515598368</v>
       </c>
       <c r="D22" t="n">
-        <v>-6386591432332229308067364502241280</v>
+        <v>23.2533292996008</v>
       </c>
       <c r="E22" t="n">
-        <v>4175967677548841694515838370971648</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6386591432332229308067364502241280</v>
-      </c>
+        <v>2114.91494985114</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,10 +1070,10 @@
         <v>211</v>
       </c>
       <c r="I22" t="n">
-        <v>-84.2232139328158</v>
+        <v>-104.936837815975</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,20 +1081,18 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>158.263399825996</v>
+        <v>112.912402858827</v>
       </c>
       <c r="C23" t="n">
-        <v>-214207879429086851836563648013139968</v>
+        <v>35.9930511050931</v>
       </c>
       <c r="D23" t="n">
-        <v>-327602681135421822154422868410105856</v>
+        <v>23.9153087125152</v>
       </c>
       <c r="E23" t="n">
-        <v>214207879429086851836563648013139968</v>
-      </c>
-      <c r="F23" t="n">
-        <v>327602681135421822154422868410105856</v>
-      </c>
+        <v>2909.62537730128</v>
+      </c>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,10 +1100,10 @@
         <v>190</v>
       </c>
       <c r="I23" t="n">
-        <v>-31.736600174004</v>
+        <v>-77.0875971411732</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1131,20 +1111,18 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>130.300389449571</v>
+        <v>107.002713972326</v>
       </c>
       <c r="C24" t="n">
-        <v>-5683307285500097589790515707657584640</v>
+        <v>34.9370174699405</v>
       </c>
       <c r="D24" t="n">
-        <v>-8691868428970075129055944841753526272</v>
+        <v>23.3460496827423</v>
       </c>
       <c r="E24" t="n">
-        <v>5683307285500097589790515707657584640</v>
-      </c>
-      <c r="F24" t="n">
-        <v>8691868428970075129055944841753526272</v>
-      </c>
+        <v>2206.77325969257</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,10 +1130,10 @@
         <v>155</v>
       </c>
       <c r="I24" t="n">
-        <v>-24.6996105504291</v>
+        <v>-47.9972860276744</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1163,19 +1141,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>80.4768900071272</v>
+        <v>71.4122280478532</v>
       </c>
       <c r="C25" t="n">
-        <v>-113134442644151759158533089792660340736</v>
+        <v>27.5973701487673</v>
       </c>
       <c r="D25" t="n">
-        <v>-173024198912605404886924154340152180736</v>
+        <v>19.2438499204662</v>
       </c>
       <c r="E25" t="n">
-        <v>113134442644151759158533089792660340736</v>
+        <v>513.159364825819</v>
       </c>
       <c r="F25" t="n">
-        <v>173024198912605404886924154340152180736</v>
+        <v>180653.705938869</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,10 +1162,10 @@
         <v>91</v>
       </c>
       <c r="I25" t="n">
-        <v>-10.5231099928728</v>
+        <v>-19.5877719521468</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1195,20 +1173,18 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>51.6341154045784</v>
+        <v>74.1010680125188</v>
       </c>
       <c r="C26" t="n">
-        <v>-1828700415515846630083844845666585018368</v>
+        <v>27.0926618230067</v>
       </c>
       <c r="D26" t="n">
-        <v>-2796755939665506286677791820419728146432</v>
+        <v>18.6194966050097</v>
       </c>
       <c r="E26" t="n">
-        <v>1828700415515846630083844845666585018368</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2796755939665506286677791820419728146432</v>
-      </c>
+        <v>703.101527503553</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1192,7 @@
         <v>63</v>
       </c>
       <c r="I26" t="n">
-        <v>-11.3658845954216</v>
+        <v>11.1010680125188</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1203,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>32.1514129599344</v>
+        <v>61.5876749014021</v>
       </c>
       <c r="C27" t="n">
-        <v>-62193102440742512427451376804839599112192</v>
+        <v>23.9378570939454</v>
       </c>
       <c r="D27" t="n">
-        <v>-95116142142017609412322143233389442891776</v>
+        <v>16.7177224328382</v>
       </c>
       <c r="E27" t="n">
-        <v>62193102440742512427451376804839599112192</v>
+        <v>431.104543280433</v>
       </c>
       <c r="F27" t="n">
-        <v>95116142142017609412322143233389442891776</v>
+        <v>76403.7328778497</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1224,7 @@
         <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>-5.84858704006559</v>
+        <v>23.5876749014021</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,20 +1235,18 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>48.0817593064358</v>
+        <v>68.8408645663835</v>
       </c>
       <c r="C28" t="n">
-        <v>-4937973126304102160680890646831298846392320</v>
+        <v>25.4946428266174</v>
       </c>
       <c r="D28" t="n">
-        <v>-7551978199230618195146869792474563170271232</v>
+        <v>17.5794805128572</v>
       </c>
       <c r="E28" t="n">
-        <v>4937973126304102160680890646831298846392320</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7551978199230618195146869792474563170271232</v>
-      </c>
+        <v>609.751479351974</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1254,10 @@
         <v>36</v>
       </c>
       <c r="I28" t="n">
-        <v>12.0817593064358</v>
+        <v>32.8408645663835</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,20 +1265,18 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>53.1465422406208</v>
+        <v>71.9044148135746</v>
       </c>
       <c r="C29" t="n">
-        <v>-130501865793812357238454385219421290239098880</v>
+        <v>26.1240058312124</v>
       </c>
       <c r="D29" t="n">
-        <v>-199585380524627936108033051165737432270241792</v>
+        <v>17.9246881723194</v>
       </c>
       <c r="E29" t="n">
-        <v>130501865793812357238454385219421290239098880</v>
-      </c>
-      <c r="F29" t="n">
-        <v>199585380524627936108033051165737432270241792</v>
-      </c>
+        <v>706.534188753504</v>
+      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,10 +1284,10 @@
         <v>89</v>
       </c>
       <c r="I29" t="n">
-        <v>-35.8534577593792</v>
+        <v>-17.0955851864254</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1323,20 +1295,18 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>93.8523114407699</v>
+        <v>91.2095566959946</v>
       </c>
       <c r="C30" t="n">
-        <v>-8194957466721776071546472134139911283492782080</v>
+        <v>29.9315008634746</v>
       </c>
       <c r="D30" t="n">
-        <v>-12533105901818893708799798878132892522573201408</v>
+        <v>20.0254437287924</v>
       </c>
       <c r="E30" t="n">
-        <v>8194957466721776071546472134139911283492782080</v>
-      </c>
-      <c r="F30" t="n">
-        <v>12533105901818893708799798878132892522573201408</v>
-      </c>
+        <v>1800.94008947207</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,10 +1314,10 @@
         <v>144</v>
       </c>
       <c r="I30" t="n">
-        <v>-50.1476885592301</v>
+        <v>-52.7904433040054</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1355,20 +1325,18 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>103.617042609096</v>
+        <v>91.9458475322351</v>
       </c>
       <c r="C31" t="n">
-        <v>-393612604769051486443200997271468495750041698304</v>
+        <v>30.0610673295382</v>
       </c>
       <c r="D31" t="n">
-        <v>-601978531297335291294319089825792627780672815104</v>
+        <v>20.0942119692463</v>
       </c>
       <c r="E31" t="n">
-        <v>393612604769051486443200997271468495750041698304</v>
-      </c>
-      <c r="F31" t="n">
-        <v>601978531297335291294319089825792627780672815104</v>
-      </c>
+        <v>1874.3349067107</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,10 +1344,10 @@
         <v>124</v>
       </c>
       <c r="I31" t="n">
-        <v>-20.3829573909038</v>
+        <v>-32.0541524677649</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,20 +1355,18 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>115.296491308078</v>
+        <v>90.1283612481187</v>
       </c>
       <c r="C32" t="n">
-        <v>-10747496833468575737288279248541803233444441882624</v>
+        <v>29.725731520082</v>
       </c>
       <c r="D32" t="n">
-        <v>-16436877987508169472092827088701927574121002041344</v>
+        <v>19.9118032383342</v>
       </c>
       <c r="E32" t="n">
-        <v>10747496833468575737288279248541803233444441882624</v>
-      </c>
-      <c r="F32" t="n">
-        <v>16436877987508169472092827088701927574121002041344</v>
-      </c>
+        <v>1706.09178554602</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,10 +1374,10 @@
         <v>179</v>
       </c>
       <c r="I32" t="n">
-        <v>-63.703508691922</v>
+        <v>-88.8716387518813</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,20 +1385,18 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>127.340489442809</v>
+        <v>95.8697155979491</v>
       </c>
       <c r="C33" t="n">
-        <v>-312145220954426543298174046212006867837177389121536</v>
+        <v>30.7641807382851</v>
       </c>
       <c r="D33" t="n">
-        <v>-477384919550224347849855888995669373820027948498944</v>
+        <v>20.4731014795688</v>
       </c>
       <c r="E33" t="n">
-        <v>312145220954426543298174046212006867837177389121536</v>
-      </c>
-      <c r="F33" t="n">
-        <v>477384919550224347849855888995669373820027948498944</v>
-      </c>
+        <v>2315.74336935896</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,10 +1404,10 @@
         <v>205</v>
       </c>
       <c r="I33" t="n">
-        <v>-77.6595105571914</v>
+        <v>-109.130284402051</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,20 +1415,18 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>124.895847052226</v>
+        <v>97.9423986719936</v>
       </c>
       <c r="C34" t="n">
-        <v>-8297507427930183836898244852811329205325619533971456</v>
+        <v>31.1286812407607</v>
       </c>
       <c r="D34" t="n">
-        <v>-12689942533280572576161035956979682723104157807411200</v>
+        <v>20.6688069646146</v>
       </c>
       <c r="E34" t="n">
-        <v>8297507427930183836898244852811329205325619533971456</v>
-      </c>
-      <c r="F34" t="n">
-        <v>12689942533280572576161035956979682723104157807411200</v>
-      </c>
+        <v>2599.75479900897</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,10 +1434,10 @@
         <v>174</v>
       </c>
       <c r="I34" t="n">
-        <v>-49.1041529477744</v>
+        <v>-76.0576013280064</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1483,20 +1445,18 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>157.709915217421</v>
+        <v>102.17452732333</v>
       </c>
       <c r="C35" t="n">
-        <v>-345260421542520232759575201788145806057666886926073856</v>
+        <v>31.8571224498194</v>
       </c>
       <c r="D35" t="n">
-        <v>-528030248414460709997593953241035690897105181871177728</v>
+        <v>21.0580075301568</v>
       </c>
       <c r="E35" t="n">
-        <v>345260421542520232759575201788145806057666886926073856</v>
-      </c>
-      <c r="F35" t="n">
-        <v>528030248414460709997593953241035690897105181871177728</v>
-      </c>
+        <v>3328.62969185802</v>
+      </c>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1464,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>39.7099152174206</v>
+        <v>-15.8254726766702</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,20 +1475,18 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>130.433349274124</v>
+        <v>98.5307417901806</v>
       </c>
       <c r="C36" t="n">
-        <v>-7365251750097095654139285085001155310902204161364852736</v>
+        <v>31.2311487041966</v>
       </c>
       <c r="D36" t="n">
-        <v>-11264180510072900885539894530838856625094350626483077120</v>
+        <v>20.7236923872077</v>
       </c>
       <c r="E36" t="n">
-        <v>7365251750097095654139285085001155310902204161364852736</v>
-      </c>
-      <c r="F36" t="n">
-        <v>11264180510072900885539894530838856625094350626483077120</v>
-      </c>
+        <v>2688.1988945242</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1494,7 @@
         <v>116</v>
       </c>
       <c r="I36" t="n">
-        <v>14.4333492741236</v>
+        <v>-17.4692582098194</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,20 +1505,18 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>81.3177791841064</v>
+        <v>74.2096390010786</v>
       </c>
       <c r="C37" t="n">
-        <v>-102113309038033121622978692186316172573849426146644459520</v>
+        <v>26.5937020029504</v>
       </c>
       <c r="D37" t="n">
-        <v>-156168829595010184344930968550784748504957978069239332864</v>
+        <v>18.1831291698369</v>
       </c>
       <c r="E37" t="n">
-        <v>102113309038033121622978692186316172573849426146644459520</v>
-      </c>
-      <c r="F37" t="n">
-        <v>156168829595010184344930968550784748504957978069239332864</v>
-      </c>
+        <v>788.92107240207</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1568,10 +1524,10 @@
         <v>36</v>
       </c>
       <c r="I37" t="n">
-        <v>45.3177791841064</v>
+        <v>38.2096390010786</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1579,20 +1535,18 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>53.2536566397717</v>
+        <v>76.2134341309918</v>
       </c>
       <c r="C38" t="n">
-        <v>-1755585289767056619073392217977943028402367600311268278272</v>
+        <v>26.5036333176995</v>
       </c>
       <c r="D38" t="n">
-        <v>-2684936004326542099965679014275185741643665484605758111744</v>
+        <v>17.9851686256188</v>
       </c>
       <c r="E38" t="n">
-        <v>1755585289767056619073392217977943028402367600311268278272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2684936004326542099965679014275185741643665484605758111744</v>
-      </c>
+        <v>976.417015436906</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1600,10 +1554,10 @@
         <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>20.2536566397717</v>
+        <v>43.2134341309918</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1611,20 +1565,18 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>29.7522997018203</v>
+        <v>66.6051067910391</v>
       </c>
       <c r="C39" t="n">
-        <v>-49264851176562599490821595101414407262329437211283851051008</v>
+        <v>24.3506491738519</v>
       </c>
       <c r="D39" t="n">
-        <v>-75344088061533395967836570429680084363954590639629933740032</v>
+        <v>16.7348019492771</v>
       </c>
       <c r="E39" t="n">
-        <v>49264851176562599490821595101414407262329437211283851051008</v>
-      </c>
-      <c r="F39" t="n">
-        <v>75344088061533395967836570429680084363954590639629933740032</v>
-      </c>
+        <v>632.16960110275</v>
+      </c>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1584,7 @@
         <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>-20.2477002981797</v>
+        <v>16.6051067910391</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,20 +1595,18 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>46.3589049851544</v>
+        <v>72.2633864316731</v>
       </c>
       <c r="C40" t="n">
-        <v>-3125218511594804457779779451321537084291737124913984024084480</v>
+        <v>25.491002183296</v>
       </c>
       <c r="D40" t="n">
-        <v>-4779609257424386444516554169929612752832681435426483301515264</v>
+        <v>17.3598495905063</v>
       </c>
       <c r="E40" t="n">
-        <v>3125218511594804457779779451321537084291737124913984024084480</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4779609257424386444516554169929612752832681435426483301515264</v>
-      </c>
+        <v>845.079077555837</v>
+      </c>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1664,10 +1614,10 @@
         <v>77</v>
       </c>
       <c r="I40" t="n">
-        <v>-30.6410950148456</v>
+        <v>-4.73661356832693</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,20 +1625,18 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>51.5918885360126</v>
+        <v>74.5787922829586</v>
       </c>
       <c r="C41" t="n">
-        <v>-83897366084420341796822759463807098726082557965041967030075392</v>
+        <v>25.9425355262824</v>
       </c>
       <c r="D41" t="n">
-        <v>-128309948927695599200294690368643163330971336657037056985268224</v>
+        <v>17.6056556127536</v>
       </c>
       <c r="E41" t="n">
-        <v>83897366084420341796822759463807098726082557965041967030075392</v>
-      </c>
-      <c r="F41" t="n">
-        <v>128309948927695599200294690368643163330971336657037056985268224</v>
-      </c>
+        <v>953.695053894787</v>
+      </c>
+      <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1696,10 +1644,10 @@
         <v>119</v>
       </c>
       <c r="I41" t="n">
-        <v>-67.4081114639874</v>
+        <v>-44.4212077170414</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1707,20 +1655,18 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>93.0708255744685</v>
+        <v>88.2846432617711</v>
       </c>
       <c r="C42" t="n">
-        <v>-3333399576357421918496573145514230713462536531866790635012882432</v>
+        <v>28.5318104720028</v>
       </c>
       <c r="D42" t="n">
-        <v>-5097994720926619669201306692412048239132418027586587598985887744</v>
+        <v>19.0194261099741</v>
       </c>
       <c r="E42" t="n">
-        <v>3333399576357421918496573145514230713462536531866790635012882432</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5097994720926619669201306692412048239132418027586587598985887744</v>
-      </c>
+        <v>1995.44144179248</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1728,10 +1674,10 @@
         <v>171</v>
       </c>
       <c r="I42" t="n">
-        <v>-77.9291744255315</v>
+        <v>-82.7153567382289</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1739,20 +1685,18 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>103.235671015098</v>
+        <v>88.7800924312578</v>
       </c>
       <c r="C43" t="n">
-        <v>-82069185324623672983458722558064013898162887658178455523704176640</v>
+        <v>28.6181196461748</v>
       </c>
       <c r="D43" t="n">
-        <v>-125513987732870117400380025100714578872023505664657244454817628160</v>
+        <v>19.0653044798028</v>
       </c>
       <c r="E43" t="n">
-        <v>82069185324623672983458722558064013898162887658178455523704176640</v>
-      </c>
-      <c r="F43" t="n">
-        <v>125513987732870117400380025100714578872023505664657244454817628160</v>
-      </c>
+        <v>2055.04397255755</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1760,10 +1704,10 @@
         <v>131</v>
       </c>
       <c r="I43" t="n">
-        <v>-27.7643289849017</v>
+        <v>-42.2199075687422</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1771,20 +1715,18 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>115.213912171895</v>
+        <v>87.5537483428954</v>
       </c>
       <c r="C44" t="n">
-        <v>-1456801474994210675100698320695891246277012178988511469372054700032</v>
+        <v>28.3974604158422</v>
       </c>
       <c r="D44" t="n">
-        <v>-2227985592136605032001174527197540013039295686661362746465758216192</v>
+        <v>18.9460468001036</v>
       </c>
       <c r="E44" t="n">
-        <v>1456801474994210675100698320695891246277012178988511469372054700032</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2227985592136605032001174527197540013039295686661362746465758216192</v>
-      </c>
+        <v>1915.23469797137</v>
+      </c>
+      <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
       </c>
@@ -1792,10 +1734,10 @@
         <v>169</v>
       </c>
       <c r="I44" t="n">
-        <v>-53.7860878281053</v>
+        <v>-81.4462516571046</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1803,20 +1745,18 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>126.998333466751</v>
+        <v>91.3898968159551</v>
       </c>
       <c r="C45" t="n">
-        <v>-38873129863680333715088975174877773480254143438461993021227443159040</v>
+        <v>29.0782586970108</v>
       </c>
       <c r="D45" t="n">
-        <v>-59451321778678982548638089226733350160072377236301766215996337553408</v>
+        <v>19.3123862358535</v>
       </c>
       <c r="E45" t="n">
-        <v>38873129863680333715088975174877773480254143438461993021227443159040</v>
-      </c>
-      <c r="F45" t="n">
-        <v>59451321778678982548638089226733350160072377236301766215996337553408</v>
-      </c>
+        <v>2399.01785104522</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1824,10 +1764,10 @@
         <v>217</v>
       </c>
       <c r="I45" t="n">
-        <v>-90.0016665332489</v>
+        <v>-125.610103184045</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1835,20 +1775,18 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>123.292012558117</v>
+        <v>92.7482258472875</v>
       </c>
       <c r="C46" t="n">
-        <v>-975965569789500933541710869182652222838826800415817524104816230400000</v>
+        <v>29.3146333815448</v>
       </c>
       <c r="D46" t="n">
-        <v>-1492610534267231997146902316767033532550731662733675013061892745723904</v>
+        <v>19.4389918050906</v>
       </c>
       <c r="E46" t="n">
-        <v>975965569789500933541710869182652222838826800415817524104816230400000</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1492610534267231997146902316767033532550731662733675013061892745723904</v>
-      </c>
+        <v>2606.00905540007</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1856,10 +1794,10 @@
         <v>227</v>
       </c>
       <c r="I46" t="n">
-        <v>-103.707987441883</v>
+        <v>-134.251774152713</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1867,20 +1805,18 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>156.857069736031</v>
+        <v>95.4799717202678</v>
       </c>
       <c r="C47" t="n">
-        <v>-25810441094589801540036061735845615378632627611119985609367421511008256</v>
+        <v>29.7830249090322</v>
       </c>
       <c r="D47" t="n">
-        <v>-39473663277053689556024581352772555932862699588576528709733978705231872</v>
+        <v>19.6890262216129</v>
       </c>
       <c r="E47" t="n">
-        <v>25810441094589801540036061735845615378632627611119985609367421511008256</v>
-      </c>
-      <c r="F47" t="n">
-        <v>39473663277053689556024581352772555932862699588576528709733978705231872</v>
-      </c>
+        <v>3094.96124790335</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1888,10 +1824,10 @@
         <v>215</v>
       </c>
       <c r="I47" t="n">
-        <v>-58.142930263969</v>
+        <v>-119.520028279732</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1899,20 +1835,18 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>130.240859271021</v>
+        <v>93.1313107843365</v>
       </c>
       <c r="C48" t="n">
-        <v>-626631712144587963210079595932010694402094574135262031392540792153178112</v>
+        <v>29.3808515857824</v>
       </c>
       <c r="D48" t="n">
-        <v>-958350502932860275627104062701348309010330636498424737506673462108749824</v>
+        <v>19.4744010760007</v>
       </c>
       <c r="E48" t="n">
-        <v>626631712144587963210079595932010694402094574135262031392540792153178112</v>
-      </c>
-      <c r="F48" t="n">
-        <v>958350502932860275627104062701348309010330636498424737506673462108749824</v>
-      </c>
+        <v>2668.41105077826</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1920,10 +1854,10 @@
         <v>170</v>
       </c>
       <c r="I48" t="n">
-        <v>-39.7591407289789</v>
+        <v>-76.8686892156635</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,20 +1865,18 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>82.76304529317</v>
+        <v>76.2936877164104</v>
       </c>
       <c r="C49" t="n">
-        <v>-4552906068132367614649988034363862238775827349536081571435369470636326912</v>
+        <v>26.274638776198</v>
       </c>
       <c r="D49" t="n">
-        <v>-6963068953640747072992437916619310977383479728353102802828151214825275392</v>
+        <v>17.7867581072188</v>
       </c>
       <c r="E49" t="n">
-        <v>4552906068132367614649988034363862238775827349536081571435369470636326912</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6963068953640747072992437916619310977383479728353102802828151214825275392</v>
-      </c>
+        <v>1043.34523318629</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1952,10 +1884,10 @@
         <v>102</v>
       </c>
       <c r="I49" t="n">
-        <v>-19.23695470683</v>
+        <v>-25.7063122835896</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Typhus.xlsx
+++ b/outcome/appendix/forecast/Typhus.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Typhus</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease</t>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase</t>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>67.5394652975752</v>
+        <v>57.3350691350323</v>
       </c>
       <c r="C2" t="n">
-        <v>34.721114491011</v>
+        <v>31.1142235697116</v>
       </c>
       <c r="D2" t="n">
-        <v>26.3317297871895</v>
+        <v>24.0213201981349</v>
       </c>
       <c r="E2" t="n">
-        <v>188.844015979125</v>
+        <v>141.469450453292</v>
       </c>
       <c r="F2" t="n">
-        <v>466.286731637728</v>
+        <v>295.249918680902</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>8.53946529757525</v>
+        <v>-1.66493086496769</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>48.2105283437132</v>
+        <v>36.8118472449164</v>
       </c>
       <c r="C3" t="n">
-        <v>25.2266038495012</v>
+        <v>22.005769129568</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2418151884071</v>
+        <v>17.5704938200232</v>
       </c>
       <c r="E3" t="n">
-        <v>129.234010043417</v>
+        <v>74.5531398110795</v>
       </c>
       <c r="F3" t="n">
-        <v>300.634535927395</v>
+        <v>124.797780663245</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2105283437132</v>
+        <v>-4.18815275508356</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>58.8668564013952</v>
+        <v>54.3435689019013</v>
       </c>
       <c r="C4" t="n">
-        <v>28.3325304319418</v>
+        <v>28.9446470825122</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0432883442141</v>
+        <v>22.207276808545</v>
       </c>
       <c r="E4" t="n">
-        <v>195.029543004995</v>
+        <v>139.823116331295</v>
       </c>
       <c r="F4" t="n">
-        <v>635.022995426327</v>
+        <v>307.848043433482</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>29.8668564013952</v>
+        <v>25.3435689019013</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>63.815723683252</v>
+        <v>62.1997000814006</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6874031734759</v>
+        <v>31.3470461823632</v>
       </c>
       <c r="D5" t="n">
-        <v>21.8214643751438</v>
+        <v>23.621566247778</v>
       </c>
       <c r="E5" t="n">
-        <v>232.809943031024</v>
+        <v>182.643632749397</v>
       </c>
       <c r="F5" t="n">
-        <v>916.90610910382</v>
+        <v>485.332317495342</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>0.815723683251974</v>
+        <v>-0.800299918599372</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>102.356092334741</v>
+        <v>104.605982719057</v>
       </c>
       <c r="C6" t="n">
-        <v>40.093671918249</v>
+        <v>43.5631329582582</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0590592332012</v>
+        <v>31.0047368600265</v>
       </c>
       <c r="E6" t="n">
-        <v>692.019428960978</v>
+        <v>550.918732180126</v>
       </c>
       <c r="F6" t="n">
-        <v>65050.0859762377</v>
+        <v>6815.89954278748</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,10 +576,10 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>35.3560923347409</v>
+        <v>37.6059827190569</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>104.116733261902</v>
+        <v>107.497948103809</v>
       </c>
       <c r="C7" t="n">
-        <v>40.4721722515725</v>
+        <v>43.5060491240907</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2657350540756</v>
+        <v>30.7191697653484</v>
       </c>
       <c r="E7" t="n">
-        <v>728.463666832018</v>
+        <v>632.94659288688</v>
       </c>
       <c r="F7" t="n">
-        <v>127806.406502919</v>
+        <v>14734.9330461309</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>113</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.8832667380975</v>
+        <v>-5.50205189619122</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>99.8143926086226</v>
+        <v>114.057618629872</v>
       </c>
       <c r="C8" t="n">
-        <v>39.4248826481263</v>
+        <v>44.3172607428072</v>
       </c>
       <c r="D8" t="n">
-        <v>27.6531090888513</v>
+        <v>30.947564633295</v>
       </c>
       <c r="E8" t="n">
-        <v>650.70481572106</v>
+        <v>799.576133035275</v>
       </c>
       <c r="F8" t="n">
-        <v>37555.753706673</v>
+        <v>146434.653264907</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>138</v>
       </c>
       <c r="I8" t="n">
-        <v>-38.1856073913774</v>
+        <v>-23.9423813701279</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -651,16 +651,16 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>113.918389092879</v>
+        <v>133.353586505621</v>
       </c>
       <c r="C9" t="n">
-        <v>42.7155272213765</v>
+        <v>47.7855460958111</v>
       </c>
       <c r="D9" t="n">
-        <v>29.5493031505696</v>
+        <v>32.6722931562866</v>
       </c>
       <c r="E9" t="n">
-        <v>946.623999434732</v>
+        <v>1418.18966246303</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
@@ -670,10 +670,10 @@
         <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>-24.0816109071211</v>
+        <v>-4.64641349437861</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -681,16 +681,16 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>119.393936703708</v>
+        <v>122.897201611428</v>
       </c>
       <c r="C10" t="n">
-        <v>43.9262152758378</v>
+        <v>44.7470616786751</v>
       </c>
       <c r="D10" t="n">
-        <v>30.2370892024539</v>
+        <v>30.7197019176145</v>
       </c>
       <c r="E10" t="n">
-        <v>1095.13220828011</v>
+        <v>1193.13231289678</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
@@ -700,10 +700,10 @@
         <v>184</v>
       </c>
       <c r="I10" t="n">
-        <v>-64.6060632962916</v>
+        <v>-61.102798388572</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -711,16 +711,16 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>131.260036707646</v>
+        <v>153.118912714326</v>
       </c>
       <c r="C11" t="n">
-        <v>46.4390272111378</v>
+        <v>49.8768786332988</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6493452209923</v>
+        <v>33.3106462222923</v>
       </c>
       <c r="E11" t="n">
-        <v>1507.22273554215</v>
+        <v>3223.58222147342</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -730,10 +730,10 @@
         <v>192</v>
       </c>
       <c r="I11" t="n">
-        <v>-60.739963292354</v>
+        <v>-38.8810872856745</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -741,16 +741,16 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>120.987462975993</v>
+        <v>128.064702625511</v>
       </c>
       <c r="C12" t="n">
-        <v>44.2717814221501</v>
+        <v>44.3166412436242</v>
       </c>
       <c r="D12" t="n">
-        <v>30.4323699684732</v>
+        <v>30.0361810909522</v>
       </c>
       <c r="E12" t="n">
-        <v>1142.79518929042</v>
+        <v>1695.19941476945</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
@@ -760,10 +760,10 @@
         <v>131</v>
       </c>
       <c r="I12" t="n">
-        <v>-10.0125370240071</v>
+        <v>-2.93529737448907</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -771,19 +771,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>67.7287105538647</v>
+        <v>70.283885643616</v>
       </c>
       <c r="C13" t="n">
-        <v>30.7645975560364</v>
+        <v>30.2866195782757</v>
       </c>
       <c r="D13" t="n">
-        <v>22.4519925290143</v>
+        <v>21.7654934461235</v>
       </c>
       <c r="E13" t="n">
-        <v>265.460799901261</v>
+        <v>327.219003270426</v>
       </c>
       <c r="F13" t="n">
-        <v>1229.73020621615</v>
+        <v>2477.30140899683</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -792,10 +792,10 @@
         <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>12.7287105538647</v>
+        <v>15.283885643616</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -803,19 +803,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>71.2677417917761</v>
+        <v>57.3357829929902</v>
       </c>
       <c r="C14" t="n">
-        <v>28.7943461670449</v>
+        <v>25.3122412402128</v>
       </c>
       <c r="D14" t="n">
-        <v>20.3219233006227</v>
+        <v>18.3184832877168</v>
       </c>
       <c r="E14" t="n">
-        <v>422.515622232898</v>
+        <v>246.027026629139</v>
       </c>
       <c r="F14" t="n">
-        <v>10321.5156327062</v>
+        <v>1444.78441203764</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -824,10 +824,10 @@
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>26.2677417917761</v>
+        <v>12.3357829929902</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -835,19 +835,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>55.4284642827758</v>
+        <v>36.8121544099552</v>
       </c>
       <c r="C15" t="n">
-        <v>23.870398658538</v>
+        <v>18.5665317779447</v>
       </c>
       <c r="D15" t="n">
-        <v>17.1514334008944</v>
+        <v>13.9942179305977</v>
       </c>
       <c r="E15" t="n">
-        <v>258.610242521943</v>
+        <v>107.888872235335</v>
       </c>
       <c r="F15" t="n">
-        <v>1972.230713187</v>
+        <v>285.842668868946</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -856,7 +856,7 @@
         <v>37</v>
       </c>
       <c r="I15" t="n">
-        <v>18.4284642827758</v>
+        <v>-0.187845590044795</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -867,19 +867,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>64.4143476342764</v>
+        <v>54.3440383127768</v>
       </c>
       <c r="C16" t="n">
-        <v>26.0195586489093</v>
+        <v>23.9175306021086</v>
       </c>
       <c r="D16" t="n">
-        <v>18.3624604023013</v>
+        <v>17.2935682286285</v>
       </c>
       <c r="E16" t="n">
-        <v>382.231563643286</v>
+        <v>235.569805508798</v>
       </c>
       <c r="F16" t="n">
-        <v>9398.03540105675</v>
+        <v>1424.49644321862</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -888,10 +888,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>29.4143476342764</v>
+        <v>19.3440383127768</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -899,19 +899,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>68.3709039043147</v>
+        <v>62.2001870479923</v>
       </c>
       <c r="C17" t="n">
-        <v>26.9144278378744</v>
+        <v>25.8050391493671</v>
       </c>
       <c r="D17" t="n">
-        <v>18.8609192579718</v>
+        <v>18.3464171608114</v>
       </c>
       <c r="E17" t="n">
-        <v>452.292305268297</v>
+        <v>332.321992479056</v>
       </c>
       <c r="F17" t="n">
-        <v>31263.4168261986</v>
+        <v>4404.26657745592</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -920,10 +920,10 @@
         <v>105</v>
       </c>
       <c r="I17" t="n">
-        <v>-36.6290960956853</v>
+        <v>-42.7998129520077</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -931,16 +931,16 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>95.5961052807623</v>
+        <v>104.606890224736</v>
       </c>
       <c r="C18" t="n">
-        <v>32.8015292063668</v>
+        <v>34.7992483236872</v>
       </c>
       <c r="D18" t="n">
-        <v>22.1850330975252</v>
+        <v>23.3587689067989</v>
       </c>
       <c r="E18" t="n">
-        <v>1340.80128555387</v>
+        <v>1846.47640576941</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
@@ -950,10 +950,10 @@
         <v>111</v>
       </c>
       <c r="I18" t="n">
-        <v>-15.4038947192377</v>
+        <v>-6.39310977526354</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -961,16 +961,16 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>96.7155138363487</v>
+        <v>107.498747130485</v>
       </c>
       <c r="C19" t="n">
-        <v>33.0077379846841</v>
+        <v>34.900302489703</v>
       </c>
       <c r="D19" t="n">
-        <v>22.2949489980062</v>
+        <v>23.2899491175356</v>
       </c>
       <c r="E19" t="n">
-        <v>1408.67062517497</v>
+        <v>2331.1145503572</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
@@ -980,10 +980,10 @@
         <v>112</v>
       </c>
       <c r="I19" t="n">
-        <v>-15.2844861636513</v>
+        <v>-4.50125286951513</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -991,16 +991,16 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>93.9634236947013</v>
+        <v>114.058357217894</v>
       </c>
       <c r="C20" t="n">
-        <v>32.462795537071</v>
+        <v>35.6172872189926</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9931560886917</v>
+        <v>23.5519609200313</v>
       </c>
       <c r="E20" t="n">
-        <v>1257.56186691646</v>
+        <v>3651.70743752044</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
@@ -1010,7 +1010,7 @@
         <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.03657630529865</v>
+        <v>13.0583572178937</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1021,16 +1021,16 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>102.785324652507</v>
+        <v>133.354377938284</v>
       </c>
       <c r="C21" t="n">
-        <v>34.1598467708788</v>
+        <v>38.2336688074308</v>
       </c>
       <c r="D21" t="n">
-        <v>22.9241507827424</v>
+        <v>24.7986406045159</v>
       </c>
       <c r="E21" t="n">
-        <v>1828.52861718167</v>
+        <v>16859.0461994327</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
@@ -1040,10 +1040,10 @@
         <v>143</v>
       </c>
       <c r="I21" t="n">
-        <v>-40.2146753474929</v>
+        <v>-9.6456220617161</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1051,16 +1051,16 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>106.063162184025</v>
+        <v>122.897791969969</v>
       </c>
       <c r="C22" t="n">
-        <v>34.7657515598368</v>
+        <v>36.184777620902</v>
       </c>
       <c r="D22" t="n">
-        <v>23.2533292996008</v>
+        <v>23.6084723865616</v>
       </c>
       <c r="E22" t="n">
-        <v>2114.91494985114</v>
+        <v>8981.62867810337</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="s">
@@ -1070,10 +1070,10 @@
         <v>211</v>
       </c>
       <c r="I22" t="n">
-        <v>-104.936837815975</v>
+        <v>-88.1022080300315</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1081,17 +1081,15 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>112.912402858827</v>
+        <v>153.119609582103</v>
       </c>
       <c r="C23" t="n">
-        <v>35.9930511050931</v>
+        <v>40.0045167245396</v>
       </c>
       <c r="D23" t="n">
-        <v>23.9153087125152</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2909.62537730128</v>
-      </c>
+        <v>25.4373592782131</v>
+      </c>
+      <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
@@ -1100,10 +1098,10 @@
         <v>190</v>
       </c>
       <c r="I23" t="n">
-        <v>-77.0875971411732</v>
+        <v>-36.8803904178965</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1111,16 +1109,16 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>107.002713972326</v>
+        <v>128.065151072922</v>
       </c>
       <c r="C24" t="n">
-        <v>34.9370174699405</v>
+        <v>36.106428058169</v>
       </c>
       <c r="D24" t="n">
-        <v>23.3460496827423</v>
+        <v>23.3331236119579</v>
       </c>
       <c r="E24" t="n">
-        <v>2206.77325969257</v>
+        <v>25519.9653592378</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
@@ -1130,10 +1128,10 @@
         <v>155</v>
       </c>
       <c r="I24" t="n">
-        <v>-47.9972860276744</v>
+        <v>-26.9348489270783</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1141,20 +1139,18 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>71.4122280478532</v>
+        <v>70.2840376100792</v>
       </c>
       <c r="C25" t="n">
-        <v>27.5973701487673</v>
+        <v>25.6281356958849</v>
       </c>
       <c r="D25" t="n">
-        <v>19.2438499204662</v>
+        <v>17.6008340824389</v>
       </c>
       <c r="E25" t="n">
-        <v>513.159364825819</v>
-      </c>
-      <c r="F25" t="n">
-        <v>180653.705938869</v>
-      </c>
+        <v>676.814663964181</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1162,10 +1158,10 @@
         <v>91</v>
       </c>
       <c r="I25" t="n">
-        <v>-19.5877719521468</v>
+        <v>-20.7159623899208</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1173,18 +1169,20 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>74.1010680125188</v>
+        <v>57.3358771434862</v>
       </c>
       <c r="C26" t="n">
-        <v>27.0926618230067</v>
+        <v>21.9054184977444</v>
       </c>
       <c r="D26" t="n">
-        <v>18.6194966050097</v>
+        <v>15.2283993557651</v>
       </c>
       <c r="E26" t="n">
-        <v>703.101527503553</v>
-      </c>
-      <c r="F26"/>
+        <v>434.675819230318</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12271847.8752143</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>63</v>
       </c>
       <c r="I26" t="n">
-        <v>11.1010680125188</v>
+        <v>-5.66412285651383</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1203,19 +1201,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>61.5876749014021</v>
+        <v>36.8121949217098</v>
       </c>
       <c r="C27" t="n">
-        <v>23.9378570939454</v>
+        <v>16.4337276354147</v>
       </c>
       <c r="D27" t="n">
-        <v>16.7177224328382</v>
+        <v>11.9319703341852</v>
       </c>
       <c r="E27" t="n">
-        <v>431.104543280433</v>
+        <v>152.361094148495</v>
       </c>
       <c r="F27" t="n">
-        <v>76403.7328778497</v>
+        <v>810.041212198415</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1224,7 +1222,7 @@
         <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>23.5876749014021</v>
+        <v>-1.18780507829017</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1235,18 +1233,20 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>68.8408645663835</v>
+        <v>54.3441002230226</v>
       </c>
       <c r="C28" t="n">
-        <v>25.4946428266174</v>
+        <v>20.8571245526744</v>
       </c>
       <c r="D28" t="n">
-        <v>17.5794805128572</v>
+        <v>14.5171585674924</v>
       </c>
       <c r="E28" t="n">
-        <v>609.751479351974</v>
-      </c>
-      <c r="F28"/>
+        <v>403.222477756197</v>
+      </c>
+      <c r="F28" t="n">
+        <v>613924.156383515</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1254,10 +1254,10 @@
         <v>36</v>
       </c>
       <c r="I28" t="n">
-        <v>32.8408645663835</v>
+        <v>18.3441002230226</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1265,16 +1265,16 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>71.9044148135746</v>
+        <v>62.2002512736033</v>
       </c>
       <c r="C29" t="n">
-        <v>26.1240058312124</v>
+        <v>22.4224654656559</v>
       </c>
       <c r="D29" t="n">
-        <v>17.9246881723194</v>
+        <v>15.3542243650462</v>
       </c>
       <c r="E29" t="n">
-        <v>706.534188753504</v>
+        <v>638.874391715236</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
@@ -1284,10 +1284,10 @@
         <v>89</v>
       </c>
       <c r="I29" t="n">
-        <v>-17.0955851864254</v>
+        <v>-26.7997487263967</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1295,16 +1295,16 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>91.2095566959946</v>
+        <v>104.607009914979</v>
       </c>
       <c r="C30" t="n">
-        <v>29.9315008634746</v>
+        <v>29.6148335822423</v>
       </c>
       <c r="D30" t="n">
-        <v>20.0254437287924</v>
+        <v>19.1552885990654</v>
       </c>
       <c r="E30" t="n">
-        <v>1800.94008947207</v>
+        <v>18433.8548779065</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
@@ -1314,10 +1314,10 @@
         <v>144</v>
       </c>
       <c r="I30" t="n">
-        <v>-52.7904433040054</v>
+        <v>-39.3929900850211</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1325,16 +1325,16 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>91.9458475322351</v>
+        <v>107.4988525134</v>
       </c>
       <c r="C31" t="n">
-        <v>30.0610673295382</v>
+        <v>29.7497341875208</v>
       </c>
       <c r="D31" t="n">
-        <v>20.0942119692463</v>
+        <v>19.1480706671686</v>
       </c>
       <c r="E31" t="n">
-        <v>1874.3349067107</v>
+        <v>42417.3846650572</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
@@ -1344,10 +1344,10 @@
         <v>124</v>
       </c>
       <c r="I31" t="n">
-        <v>-32.0541524677649</v>
+        <v>-16.5011474866</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1355,16 +1355,16 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>90.1283612481187</v>
+        <v>114.058454629529</v>
       </c>
       <c r="C32" t="n">
-        <v>29.725731520082</v>
+        <v>30.3668909722038</v>
       </c>
       <c r="D32" t="n">
-        <v>19.9118032383342</v>
+        <v>19.3852983214581</v>
       </c>
       <c r="E32" t="n">
-        <v>1706.09178554602</v>
+        <v>4143495.27769342</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="s">
@@ -1374,10 +1374,10 @@
         <v>179</v>
       </c>
       <c r="I32" t="n">
-        <v>-88.8716387518813</v>
+        <v>-64.9415453704714</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1385,17 +1385,15 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>95.8697155979491</v>
+        <v>133.354482319497</v>
       </c>
       <c r="C33" t="n">
-        <v>30.7641807382851</v>
+        <v>32.46970487678</v>
       </c>
       <c r="D33" t="n">
-        <v>20.4731014795688</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2315.74336935896</v>
-      </c>
+        <v>20.353261032585</v>
+      </c>
+      <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
@@ -1404,10 +1402,10 @@
         <v>205</v>
       </c>
       <c r="I33" t="n">
-        <v>-109.130284402051</v>
+        <v>-71.6455176805028</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1415,17 +1413,15 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>97.9423986719936</v>
+        <v>122.897869831653</v>
       </c>
       <c r="C34" t="n">
-        <v>31.1286812407607</v>
+        <v>30.9198838335699</v>
       </c>
       <c r="D34" t="n">
-        <v>20.6688069646146</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2599.75479900897</v>
-      </c>
+        <v>19.509395024217</v>
+      </c>
+      <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
@@ -1434,10 +1430,10 @@
         <v>174</v>
       </c>
       <c r="I34" t="n">
-        <v>-76.0576013280064</v>
+        <v>-51.1021301683472</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1445,17 +1441,15 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>102.17452732333</v>
+        <v>153.119701491145</v>
       </c>
       <c r="C35" t="n">
-        <v>31.8571224498194</v>
+        <v>33.9673187066537</v>
       </c>
       <c r="D35" t="n">
-        <v>21.0580075301568</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3328.62969185802</v>
-      </c>
+        <v>20.9133647636498</v>
+      </c>
+      <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
@@ -1464,7 +1458,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>-15.8254726766702</v>
+        <v>35.1197014911447</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1475,17 +1469,15 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>98.5307417901806</v>
+        <v>128.06521021805</v>
       </c>
       <c r="C36" t="n">
-        <v>31.2311487041966</v>
+        <v>30.9595668389998</v>
       </c>
       <c r="D36" t="n">
-        <v>20.7236923872077</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2688.1988945242</v>
-      </c>
+        <v>19.3791901818139</v>
+      </c>
+      <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
@@ -1494,7 +1486,7 @@
         <v>116</v>
       </c>
       <c r="I36" t="n">
-        <v>-17.4692582098194</v>
+        <v>12.0652102180502</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1505,16 +1497,16 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>74.2096390010786</v>
+        <v>70.2840576527094</v>
       </c>
       <c r="C37" t="n">
-        <v>26.5937020029504</v>
+        <v>22.5469489530972</v>
       </c>
       <c r="D37" t="n">
-        <v>18.1831291698369</v>
+        <v>15.0035710766718</v>
       </c>
       <c r="E37" t="n">
-        <v>788.92107240207</v>
+        <v>1702.69413075383</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
@@ -1524,10 +1516,10 @@
         <v>36</v>
       </c>
       <c r="I37" t="n">
-        <v>38.2096390010786</v>
+        <v>34.2840576527094</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1535,16 +1527,16 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>76.2134341309918</v>
+        <v>57.3358895608491</v>
       </c>
       <c r="C38" t="n">
-        <v>26.5036333176995</v>
+        <v>19.5475988591519</v>
       </c>
       <c r="D38" t="n">
-        <v>17.9851686256188</v>
+        <v>13.1999653556689</v>
       </c>
       <c r="E38" t="n">
-        <v>976.417015436906</v>
+        <v>841.321235143703</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
@@ -1554,10 +1546,10 @@
         <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>43.2134341309918</v>
+        <v>24.3358895608491</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1565,18 +1557,20 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>66.6051067910391</v>
+        <v>36.8122002647399</v>
       </c>
       <c r="C39" t="n">
-        <v>24.3506491738519</v>
+        <v>14.9071801546735</v>
       </c>
       <c r="D39" t="n">
-        <v>16.7348019492771</v>
+        <v>10.5275016334663</v>
       </c>
       <c r="E39" t="n">
-        <v>632.16960110275</v>
-      </c>
-      <c r="F39"/>
+        <v>216.237129169565</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4952.6343088765</v>
+      </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1578,7 @@
         <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>16.6051067910391</v>
+        <v>-13.1877997352601</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1595,16 +1589,16 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>72.2633864316731</v>
+        <v>54.3441083882654</v>
       </c>
       <c r="C40" t="n">
-        <v>25.491002183296</v>
+        <v>18.7023507528535</v>
       </c>
       <c r="D40" t="n">
-        <v>17.3598495905063</v>
+        <v>12.6584615413287</v>
       </c>
       <c r="E40" t="n">
-        <v>845.079077555837</v>
+        <v>746.75235940102</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="s">
@@ -1614,10 +1608,10 @@
         <v>77</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.73661356832693</v>
+        <v>-22.6558916117346</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1625,16 +1619,16 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>74.5787922829586</v>
+        <v>62.2002597442152</v>
       </c>
       <c r="C41" t="n">
-        <v>25.9425355262824</v>
+        <v>20.0444338259029</v>
       </c>
       <c r="D41" t="n">
-        <v>17.6056556127536</v>
+        <v>13.3526378943987</v>
       </c>
       <c r="E41" t="n">
-        <v>953.695053894787</v>
+        <v>1443.6208452629</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="s">
@@ -1644,10 +1638,10 @@
         <v>119</v>
       </c>
       <c r="I41" t="n">
-        <v>-44.4212077170414</v>
+        <v>-56.7997402557848</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1655,17 +1649,15 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>88.2846432617711</v>
+        <v>104.607025700732</v>
       </c>
       <c r="C42" t="n">
-        <v>28.5318104720028</v>
+        <v>26.0584199671825</v>
       </c>
       <c r="D42" t="n">
-        <v>19.0194261099741</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1995.44144179248</v>
-      </c>
+        <v>16.4091033995766</v>
+      </c>
+      <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
@@ -1674,10 +1666,10 @@
         <v>171</v>
       </c>
       <c r="I42" t="n">
-        <v>-82.7153567382289</v>
+        <v>-66.3929742992676</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1685,17 +1677,15 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>88.7800924312578</v>
+        <v>107.498866412182</v>
       </c>
       <c r="C43" t="n">
-        <v>28.6181196461748</v>
+        <v>26.1982912494807</v>
       </c>
       <c r="D43" t="n">
-        <v>19.0653044798028</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2055.04397255755</v>
-      </c>
+        <v>16.4250865168873</v>
+      </c>
+      <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
@@ -1704,10 +1694,10 @@
         <v>131</v>
       </c>
       <c r="I43" t="n">
-        <v>-42.2199075687422</v>
+        <v>-23.5011335878185</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1715,17 +1705,15 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>87.5537483428954</v>
+        <v>114.058467476989</v>
       </c>
       <c r="C44" t="n">
-        <v>28.3974604158422</v>
+        <v>26.7353410259993</v>
       </c>
       <c r="D44" t="n">
-        <v>18.9460468001036</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1915.23469797137</v>
-      </c>
+        <v>16.6343053228393</v>
+      </c>
+      <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
@@ -1734,10 +1722,10 @@
         <v>169</v>
       </c>
       <c r="I44" t="n">
-        <v>-81.4462516571046</v>
+        <v>-54.9415325230108</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1745,17 +1733,15 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>91.3898968159551</v>
+        <v>133.354496086163</v>
       </c>
       <c r="C45" t="n">
-        <v>29.0782586970108</v>
+        <v>28.4928703857615</v>
       </c>
       <c r="D45" t="n">
-        <v>19.3123862358535</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2399.01785104522</v>
-      </c>
+        <v>17.4213872105257</v>
+      </c>
+      <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
@@ -1764,10 +1750,10 @@
         <v>217</v>
       </c>
       <c r="I45" t="n">
-        <v>-125.610103184045</v>
+        <v>-83.6455039138365</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1775,17 +1761,15 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>92.7482258472875</v>
+        <v>122.897880100701</v>
       </c>
       <c r="C46" t="n">
-        <v>29.3146333815448</v>
+        <v>27.2478208859742</v>
       </c>
       <c r="D46" t="n">
-        <v>19.4389918050906</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2606.00905540007</v>
-      </c>
+        <v>16.7744767358778</v>
+      </c>
+      <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
@@ -1794,10 +1778,10 @@
         <v>227</v>
       </c>
       <c r="I46" t="n">
-        <v>-134.251774152713</v>
+        <v>-104.102119899299</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1805,17 +1789,15 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>95.4799717202678</v>
+        <v>153.119713612875</v>
       </c>
       <c r="C47" t="n">
-        <v>29.7830249090322</v>
+        <v>29.7815764445752</v>
       </c>
       <c r="D47" t="n">
-        <v>19.6890262216129</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3094.96124790335</v>
-      </c>
+        <v>17.9078074298383</v>
+      </c>
+      <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
@@ -1824,10 +1806,10 @@
         <v>215</v>
       </c>
       <c r="I47" t="n">
-        <v>-119.520028279732</v>
+        <v>-61.880286387125</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1835,17 +1817,15 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>93.1313107843365</v>
+        <v>128.065218018601</v>
       </c>
       <c r="C48" t="n">
-        <v>29.3808515857824</v>
+        <v>27.3353469625617</v>
       </c>
       <c r="D48" t="n">
-        <v>19.4744010760007</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2668.41105077826</v>
-      </c>
+        <v>16.7105816840731</v>
+      </c>
+      <c r="E48"/>
       <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
@@ -1854,10 +1834,10 @@
         <v>170</v>
       </c>
       <c r="I48" t="n">
-        <v>-76.8686892156635</v>
+        <v>-41.9347819813985</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1865,16 +1845,16 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>76.2936877164104</v>
+        <v>70.2840602960976</v>
       </c>
       <c r="C49" t="n">
-        <v>26.274638776198</v>
+        <v>20.2957105074703</v>
       </c>
       <c r="D49" t="n">
-        <v>17.7867581072188</v>
+        <v>13.1847335884303</v>
       </c>
       <c r="E49" t="n">
-        <v>1043.34523318629</v>
+        <v>7537.87294016014</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="s">
@@ -1884,10 +1864,10 @@
         <v>102</v>
       </c>
       <c r="I49" t="n">
-        <v>-25.7063122835896</v>
+        <v>-31.7159397039024</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Typhus.xlsx
+++ b/outcome/appendix/forecast/Typhus.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>57.3350691350323</v>
+        <v>42.483937606961</v>
       </c>
       <c r="C2" t="n">
-        <v>31.1142235697116</v>
+        <v>25.8829970570956</v>
       </c>
       <c r="D2" t="n">
-        <v>24.0213201981349</v>
+        <v>20.7469340188118</v>
       </c>
       <c r="E2" t="n">
-        <v>141.469450453292</v>
+        <v>82.2000484417864</v>
       </c>
       <c r="F2" t="n">
-        <v>295.249918680902</v>
+        <v>131.253296164405</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.66493086496769</v>
+        <v>-16.516062393039</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>36.8118472449164</v>
+        <v>29.0468374764204</v>
       </c>
       <c r="C3" t="n">
-        <v>22.005769129568</v>
+        <v>19.0692060036855</v>
       </c>
       <c r="D3" t="n">
-        <v>17.5704938200232</v>
+        <v>15.7140678736907</v>
       </c>
       <c r="E3" t="n">
-        <v>74.5531398110795</v>
+        <v>49.2983491042992</v>
       </c>
       <c r="F3" t="n">
-        <v>124.797780663245</v>
+        <v>69.9271744384231</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.18815275508356</v>
+        <v>-11.9531625235796</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54.3435689019013</v>
+        <v>63.3010533930753</v>
       </c>
       <c r="C4" t="n">
-        <v>28.9446470825122</v>
+        <v>35.0815208495987</v>
       </c>
       <c r="D4" t="n">
-        <v>22.207276808545</v>
+        <v>27.2065013865627</v>
       </c>
       <c r="E4" t="n">
-        <v>139.823116331295</v>
+        <v>147.971115764855</v>
       </c>
       <c r="F4" t="n">
-        <v>307.848043433482</v>
+        <v>289.365552897639</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>25.3435689019013</v>
+        <v>34.3010533930753</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>62.1997000814006</v>
+        <v>62.222265606266</v>
       </c>
       <c r="C5" t="n">
-        <v>31.3470461823632</v>
+        <v>34.6150730883851</v>
       </c>
       <c r="D5" t="n">
-        <v>23.621566247778</v>
+        <v>26.879016907675</v>
       </c>
       <c r="E5" t="n">
-        <v>182.643632749397</v>
+        <v>144.259902337411</v>
       </c>
       <c r="F5" t="n">
-        <v>485.332317495342</v>
+        <v>279.372223751268</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.800299918599372</v>
+        <v>-0.777734393734043</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>104.605982719057</v>
+        <v>105.295952450608</v>
       </c>
       <c r="C6" t="n">
-        <v>43.5631329582582</v>
+        <v>50.403521689175</v>
       </c>
       <c r="D6" t="n">
-        <v>31.0047368600265</v>
+        <v>37.2970208712449</v>
       </c>
       <c r="E6" t="n">
-        <v>550.918732180126</v>
+        <v>353.139178585617</v>
       </c>
       <c r="F6" t="n">
-        <v>6815.89954278748</v>
+        <v>1192.84562090659</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>37.6059827190569</v>
+        <v>38.2959524506076</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>107.497948103809</v>
+        <v>100.664894870456</v>
       </c>
       <c r="C7" t="n">
-        <v>43.5060491240907</v>
+        <v>48.8220238188133</v>
       </c>
       <c r="D7" t="n">
-        <v>30.7191697653484</v>
+        <v>36.2711980664898</v>
       </c>
       <c r="E7" t="n">
-        <v>632.94659288688</v>
+        <v>325.475586069577</v>
       </c>
       <c r="F7" t="n">
-        <v>14734.9330461309</v>
+        <v>1026.2753153693</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>113</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.50205189619122</v>
+        <v>-12.3351051295444</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>114.057618629872</v>
+        <v>130.522783319104</v>
       </c>
       <c r="C8" t="n">
-        <v>44.3172607428072</v>
+        <v>58.1065813120385</v>
       </c>
       <c r="D8" t="n">
-        <v>30.947564633295</v>
+        <v>42.0807689119711</v>
       </c>
       <c r="E8" t="n">
-        <v>799.576133035275</v>
+        <v>546.321614991762</v>
       </c>
       <c r="F8" t="n">
-        <v>146434.653264907</v>
+        <v>3107.24736715949</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>138</v>
       </c>
       <c r="I8" t="n">
-        <v>-23.9423813701279</v>
+        <v>-7.47721668089642</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,18 +651,20 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>133.353586505621</v>
+        <v>121.861640586488</v>
       </c>
       <c r="C9" t="n">
-        <v>47.7855460958111</v>
+        <v>55.454428669678</v>
       </c>
       <c r="D9" t="n">
-        <v>32.6722931562866</v>
+        <v>40.4171552453402</v>
       </c>
       <c r="E9" t="n">
-        <v>1418.18966246303</v>
-      </c>
-      <c r="F9"/>
+        <v>475.163649925472</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2234.65209148538</v>
+      </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -670,7 +672,7 @@
         <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.64641349437861</v>
+        <v>-16.1383594135116</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -681,18 +683,20 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>122.897201611428</v>
+        <v>113.272954118469</v>
       </c>
       <c r="C10" t="n">
-        <v>44.7470616786751</v>
+        <v>52.7333254488559</v>
       </c>
       <c r="D10" t="n">
-        <v>30.7197019176145</v>
+        <v>38.6932224436642</v>
       </c>
       <c r="E10" t="n">
-        <v>1193.13231289678</v>
-      </c>
-      <c r="F10"/>
+        <v>411.812317580335</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1642.98277069179</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -700,7 +704,7 @@
         <v>184</v>
       </c>
       <c r="I10" t="n">
-        <v>-61.102798388572</v>
+        <v>-70.7270458815312</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -711,18 +715,20 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>153.118912714326</v>
+        <v>163.915035005152</v>
       </c>
       <c r="C11" t="n">
-        <v>49.8768786332988</v>
+        <v>66.9999970484424</v>
       </c>
       <c r="D11" t="n">
-        <v>33.3106462222923</v>
+        <v>47.3694448478274</v>
       </c>
       <c r="E11" t="n">
-        <v>3223.58222147342</v>
-      </c>
-      <c r="F11"/>
+        <v>938.736476093619</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21453.4257590916</v>
+      </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -730,7 +736,7 @@
         <v>192</v>
       </c>
       <c r="I11" t="n">
-        <v>-38.8810872856745</v>
+        <v>-28.0849649948478</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -741,18 +747,20 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>128.064702625511</v>
+        <v>103.83761796963</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3166412436242</v>
+        <v>49.5698321929899</v>
       </c>
       <c r="D12" t="n">
-        <v>30.0361810909522</v>
+        <v>36.6466110026622</v>
       </c>
       <c r="E12" t="n">
-        <v>1695.19941476945</v>
-      </c>
-      <c r="F12"/>
+        <v>350.780835880006</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1201.40535745756</v>
+      </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -760,7 +768,7 @@
         <v>131</v>
       </c>
       <c r="I12" t="n">
-        <v>-2.93529737448907</v>
+        <v>-27.1623820303698</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -771,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70.283885643616</v>
+        <v>67.1045511171274</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2866195782757</v>
+        <v>36.3149355700895</v>
       </c>
       <c r="D13" t="n">
-        <v>21.7654934461235</v>
+        <v>27.9364918079381</v>
       </c>
       <c r="E13" t="n">
-        <v>327.219003270426</v>
+        <v>165.19259369969</v>
       </c>
       <c r="F13" t="n">
-        <v>2477.30140899683</v>
+        <v>344.147817487682</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -792,7 +800,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>15.283885643616</v>
+        <v>12.1045511171274</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -803,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>57.3357829929902</v>
+        <v>43.2917643929697</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3122412402128</v>
+        <v>26.0275439501915</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3184832877168</v>
+        <v>20.7603416080285</v>
       </c>
       <c r="E14" t="n">
-        <v>246.027026629139</v>
+        <v>85.8122653691008</v>
       </c>
       <c r="F14" t="n">
-        <v>1444.78441203764</v>
+        <v>140.262727502492</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -824,10 +832,10 @@
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>12.3357829929902</v>
+        <v>-1.70823560703027</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -835,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>36.8121544099552</v>
+        <v>29.444542182848</v>
       </c>
       <c r="C15" t="n">
-        <v>18.5665317779447</v>
+        <v>19.1165826592502</v>
       </c>
       <c r="D15" t="n">
-        <v>13.9942179305977</v>
+        <v>15.6839876570627</v>
       </c>
       <c r="E15" t="n">
-        <v>107.888872235335</v>
+        <v>50.8776209351276</v>
       </c>
       <c r="F15" t="n">
-        <v>285.842668868946</v>
+        <v>73.2606505114094</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -856,7 +864,7 @@
         <v>37</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.187845590044795</v>
+        <v>-7.55545781715196</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -867,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>54.3440383127768</v>
+        <v>64.4183747340511</v>
       </c>
       <c r="C16" t="n">
-        <v>23.9175306021086</v>
+        <v>35.1006732989466</v>
       </c>
       <c r="D16" t="n">
-        <v>17.2935682286285</v>
+        <v>27.0622764747335</v>
       </c>
       <c r="E16" t="n">
-        <v>235.569805508798</v>
+        <v>156.134466761537</v>
       </c>
       <c r="F16" t="n">
-        <v>1424.49644321862</v>
+        <v>318.962251270866</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -888,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>19.3440383127768</v>
+        <v>29.4183747340511</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -899,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>62.2001870479923</v>
+        <v>63.1694062787162</v>
       </c>
       <c r="C17" t="n">
-        <v>25.8050391493671</v>
+        <v>34.5498796117282</v>
       </c>
       <c r="D17" t="n">
-        <v>18.3464171608114</v>
+        <v>26.6705151716153</v>
       </c>
       <c r="E17" t="n">
-        <v>332.321992479056</v>
+        <v>151.824783787052</v>
       </c>
       <c r="F17" t="n">
-        <v>4404.26657745592</v>
+        <v>306.937739347118</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -920,7 +928,7 @@
         <v>105</v>
       </c>
       <c r="I17" t="n">
-        <v>-42.7998129520077</v>
+        <v>-41.8305937212838</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -931,18 +939,20 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>104.606890224736</v>
+        <v>107.131092334402</v>
       </c>
       <c r="C18" t="n">
-        <v>34.7992483236872</v>
+        <v>50.1598934267897</v>
       </c>
       <c r="D18" t="n">
-        <v>23.3587689067989</v>
+        <v>36.8625617742032</v>
       </c>
       <c r="E18" t="n">
-        <v>1846.47640576941</v>
-      </c>
-      <c r="F18"/>
+        <v>382.57371753767</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1467.43541081738</v>
+      </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -950,7 +960,7 @@
         <v>111</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.39310977526354</v>
+        <v>-3.8689076655978</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -961,18 +971,20 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>107.498747130485</v>
+        <v>102.155731859707</v>
       </c>
       <c r="C19" t="n">
-        <v>34.900302489703</v>
+        <v>48.4820548034299</v>
       </c>
       <c r="D19" t="n">
-        <v>23.2899491175356</v>
+        <v>35.7741257579884</v>
       </c>
       <c r="E19" t="n">
-        <v>2331.1145503572</v>
-      </c>
-      <c r="F19"/>
+        <v>350.648833097442</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1239.02330523473</v>
+      </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -980,7 +992,7 @@
         <v>112</v>
       </c>
       <c r="I19" t="n">
-        <v>-4.50125286951513</v>
+        <v>-9.84426814029327</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -991,18 +1003,20 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>114.058357217894</v>
+        <v>132.451673480066</v>
       </c>
       <c r="C20" t="n">
-        <v>35.6172872189926</v>
+        <v>57.5427801778409</v>
       </c>
       <c r="D20" t="n">
-        <v>23.5519609200313</v>
+        <v>41.3729546016489</v>
       </c>
       <c r="E20" t="n">
-        <v>3651.70743752044</v>
-      </c>
-      <c r="F20"/>
+        <v>601.542700464089</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4418.42810824957</v>
+      </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>13.0583572178937</v>
+        <v>31.4516734800665</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1021,18 +1035,20 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>133.354377938284</v>
+        <v>123.373234582624</v>
       </c>
       <c r="C21" t="n">
-        <v>38.2336688074308</v>
+        <v>54.8296248812924</v>
       </c>
       <c r="D21" t="n">
-        <v>24.7986406045159</v>
+        <v>39.6787342300148</v>
       </c>
       <c r="E21" t="n">
-        <v>16859.0461994327</v>
-      </c>
-      <c r="F21"/>
+        <v>518.521158680338</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2981.51945123118</v>
+      </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1056,7 @@
         <v>143</v>
       </c>
       <c r="I21" t="n">
-        <v>-9.6456220617161</v>
+        <v>-19.6267654173757</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1051,18 +1067,20 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>122.897791969969</v>
+        <v>114.449971215933</v>
       </c>
       <c r="C22" t="n">
-        <v>36.184777620902</v>
+        <v>52.0738844580203</v>
       </c>
       <c r="D22" t="n">
-        <v>23.6084723865616</v>
+        <v>37.9425096074217</v>
       </c>
       <c r="E22" t="n">
-        <v>8981.62867810337</v>
-      </c>
-      <c r="F22"/>
+        <v>445.778739553509</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2088.9848672708</v>
+      </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1088,7 @@
         <v>211</v>
       </c>
       <c r="I22" t="n">
-        <v>-88.1022080300315</v>
+        <v>-96.5500287840666</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1081,16 +1099,20 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>153.119609582103</v>
+        <v>165.716910956204</v>
       </c>
       <c r="C23" t="n">
-        <v>40.0045167245396</v>
+        <v>65.9551250585478</v>
       </c>
       <c r="D23" t="n">
-        <v>25.4373592782131</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>46.2855227477224</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1060.73260653855</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70970.3913459233</v>
+      </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1120,7 @@
         <v>190</v>
       </c>
       <c r="I23" t="n">
-        <v>-36.8803904178965</v>
+        <v>-24.2830890437958</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1109,18 +1131,20 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>128.065151072922</v>
+        <v>104.619269850839</v>
       </c>
       <c r="C24" t="n">
-        <v>36.106428058169</v>
+        <v>48.8502811141868</v>
       </c>
       <c r="D24" t="n">
-        <v>23.3331236119579</v>
+        <v>35.8663017981437</v>
       </c>
       <c r="E24" t="n">
-        <v>25519.9653592378</v>
-      </c>
-      <c r="F24"/>
+        <v>376.349282500479</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1465.922825237</v>
+      </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1152,7 @@
         <v>155</v>
       </c>
       <c r="I24" t="n">
-        <v>-26.9348489270783</v>
+        <v>-50.3807301491611</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1139,18 +1163,20 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>70.2840376100792</v>
+        <v>67.4553923421311</v>
       </c>
       <c r="C25" t="n">
-        <v>25.6281356958849</v>
+        <v>35.8328038742594</v>
       </c>
       <c r="D25" t="n">
-        <v>17.6008340824389</v>
+        <v>27.3906107365095</v>
       </c>
       <c r="E25" t="n">
-        <v>676.814663964181</v>
-      </c>
-      <c r="F25"/>
+        <v>173.030024130544</v>
+      </c>
+      <c r="F25" t="n">
+        <v>380.055889355843</v>
+      </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1184,7 @@
         <v>91</v>
       </c>
       <c r="I25" t="n">
-        <v>-20.7159623899208</v>
+        <v>-23.5446076578689</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1169,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>57.3358771434862</v>
+        <v>43.4495955316012</v>
       </c>
       <c r="C26" t="n">
-        <v>21.9054184977444</v>
+        <v>25.7172521873932</v>
       </c>
       <c r="D26" t="n">
-        <v>15.2283993557651</v>
+        <v>20.3938322870397</v>
       </c>
       <c r="E26" t="n">
-        <v>434.675819230318</v>
+        <v>88.6407320002952</v>
       </c>
       <c r="F26" t="n">
-        <v>12271847.8752143</v>
+        <v>149.077976558068</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1190,7 +1216,7 @@
         <v>63</v>
       </c>
       <c r="I26" t="n">
-        <v>-5.66412285651383</v>
+        <v>-19.5504044683988</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1201,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>36.8121949217098</v>
+        <v>29.5218717478894</v>
       </c>
       <c r="C27" t="n">
-        <v>16.4337276354147</v>
+        <v>18.9103442202254</v>
       </c>
       <c r="D27" t="n">
-        <v>11.9319703341852</v>
+        <v>15.4321197327768</v>
       </c>
       <c r="E27" t="n">
-        <v>152.361094148495</v>
+        <v>52.1396868696109</v>
       </c>
       <c r="F27" t="n">
-        <v>810.041212198415</v>
+        <v>76.4894653047436</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1222,7 +1248,7 @@
         <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.18780507829017</v>
+        <v>-8.47812825211059</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1233,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>54.3441002230226</v>
+        <v>64.6364385164554</v>
       </c>
       <c r="C28" t="n">
-        <v>20.8571245526744</v>
+        <v>34.5779049493661</v>
       </c>
       <c r="D28" t="n">
-        <v>14.5171585674924</v>
+        <v>26.4906068157531</v>
       </c>
       <c r="E28" t="n">
-        <v>403.222477756197</v>
+        <v>163.079319124587</v>
       </c>
       <c r="F28" t="n">
-        <v>613924.156383515</v>
+        <v>350.429272535889</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1254,7 +1280,7 @@
         <v>36</v>
       </c>
       <c r="I28" t="n">
-        <v>18.3441002230226</v>
+        <v>28.6364385164554</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1265,18 +1291,20 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>62.2002512736033</v>
+        <v>63.3538581753449</v>
       </c>
       <c r="C29" t="n">
-        <v>22.4224654656559</v>
+        <v>34.023818809584</v>
       </c>
       <c r="D29" t="n">
-        <v>15.3542243650462</v>
+        <v>26.0988822877521</v>
       </c>
       <c r="E29" t="n">
-        <v>638.874391715236</v>
-      </c>
-      <c r="F29"/>
+        <v>158.414892339562</v>
+      </c>
+      <c r="F29" t="n">
+        <v>336.450933465936</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1312,7 @@
         <v>89</v>
       </c>
       <c r="I29" t="n">
-        <v>-26.7997487263967</v>
+        <v>-25.6461418246551</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1295,18 +1323,20 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>104.607009914979</v>
+        <v>107.489214231109</v>
       </c>
       <c r="C30" t="n">
-        <v>29.6148335822423</v>
+        <v>49.2195240433299</v>
       </c>
       <c r="D30" t="n">
-        <v>19.1552885990654</v>
+        <v>35.9237740224773</v>
       </c>
       <c r="E30" t="n">
-        <v>18433.8548779065</v>
-      </c>
-      <c r="F30"/>
+        <v>409.955744971588</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1823.6794725827</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1344,7 @@
         <v>144</v>
       </c>
       <c r="I30" t="n">
-        <v>-39.3929900850211</v>
+        <v>-36.5107857688911</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1325,18 +1355,20 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>107.4988525134</v>
+        <v>102.445983510433</v>
       </c>
       <c r="C31" t="n">
-        <v>29.7497341875208</v>
+        <v>47.5696569031971</v>
       </c>
       <c r="D31" t="n">
-        <v>19.1480706671686</v>
+        <v>34.8626638489622</v>
       </c>
       <c r="E31" t="n">
-        <v>42417.3846650572</v>
-      </c>
-      <c r="F31"/>
+        <v>374.365740888368</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1508.61317824542</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="I31" t="n">
-        <v>-16.5011474866</v>
+        <v>-21.5540164895675</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1355,18 +1387,20 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>114.058454629529</v>
+        <v>132.827210419949</v>
       </c>
       <c r="C32" t="n">
-        <v>30.3668909722038</v>
+        <v>56.3428421285681</v>
       </c>
       <c r="D32" t="n">
-        <v>19.3852983214581</v>
+        <v>40.2276702687425</v>
       </c>
       <c r="E32" t="n">
-        <v>4143495.27769342</v>
-      </c>
-      <c r="F32"/>
+        <v>656.261974357372</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6648.63135813715</v>
+      </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1374,7 +1408,7 @@
         <v>179</v>
       </c>
       <c r="I32" t="n">
-        <v>-64.9415453704714</v>
+        <v>-46.172789580051</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1385,16 +1419,20 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>133.354482319497</v>
+        <v>123.666900767321</v>
       </c>
       <c r="C33" t="n">
-        <v>32.46970487678</v>
+        <v>53.6972612948195</v>
       </c>
       <c r="D33" t="n">
-        <v>20.353261032585</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>38.5912903834481</v>
+      </c>
+      <c r="E33" t="n">
+        <v>561.58581002027</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4117.9882565865</v>
+      </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1440,7 @@
         <v>205</v>
       </c>
       <c r="I33" t="n">
-        <v>-71.6455176805028</v>
+        <v>-81.3330992326787</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1413,16 +1451,20 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>122.897869831653</v>
+        <v>114.678223157111</v>
       </c>
       <c r="C34" t="n">
-        <v>30.9198838335699</v>
+        <v>51.0129970854824</v>
       </c>
       <c r="D34" t="n">
-        <v>19.509395024217</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>36.9162368294901</v>
+      </c>
+      <c r="E34" t="n">
+        <v>479.566278687264</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2714.8620101827</v>
+      </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1472,7 @@
         <v>174</v>
       </c>
       <c r="I34" t="n">
-        <v>-51.1021301683472</v>
+        <v>-59.3217768428893</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1441,16 +1483,20 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>153.119701491145</v>
+        <v>166.066536163247</v>
       </c>
       <c r="C35" t="n">
-        <v>33.9673187066537</v>
+        <v>64.4277756928381</v>
       </c>
       <c r="D35" t="n">
-        <v>20.9133647636498</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>44.896551179552</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1191.87076986178</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2676911.68143925</v>
+      </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1504,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>35.1197014911447</v>
+        <v>48.0665361632468</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1469,16 +1515,20 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>128.06521021805</v>
+        <v>104.770460516026</v>
       </c>
       <c r="C36" t="n">
-        <v>30.9595668389998</v>
+        <v>47.8683604978715</v>
       </c>
       <c r="D36" t="n">
-        <v>19.3791901818139</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>34.9100972652039</v>
+      </c>
+      <c r="E36" t="n">
+        <v>402.002125083013</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1813.64883723265</v>
+      </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1486,10 +1536,10 @@
         <v>116</v>
       </c>
       <c r="I36" t="n">
-        <v>12.0652102180502</v>
+        <v>-11.2295394839739</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1497,18 +1547,20 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>70.2840576527094</v>
+        <v>67.5231116489102</v>
       </c>
       <c r="C37" t="n">
-        <v>22.5469489530972</v>
+        <v>35.2099903250071</v>
       </c>
       <c r="D37" t="n">
-        <v>15.0035710766718</v>
+        <v>26.7455295143832</v>
       </c>
       <c r="E37" t="n">
-        <v>1702.69413075383</v>
-      </c>
-      <c r="F37"/>
+        <v>180.680358331633</v>
+      </c>
+      <c r="F37" t="n">
+        <v>420.214242293907</v>
+      </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1568,7 @@
         <v>36</v>
       </c>
       <c r="I37" t="n">
-        <v>34.2840576527094</v>
+        <v>31.5231116489102</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1527,18 +1579,20 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57.3358895608491</v>
+        <v>43.480016039602</v>
       </c>
       <c r="C38" t="n">
-        <v>19.5475988591519</v>
+        <v>25.3338034838532</v>
       </c>
       <c r="D38" t="n">
-        <v>13.1999653556689</v>
+        <v>19.9733714279774</v>
       </c>
       <c r="E38" t="n">
-        <v>841.321235143703</v>
-      </c>
-      <c r="F38"/>
+        <v>91.3648632829238</v>
+      </c>
+      <c r="F38" t="n">
+        <v>158.370722061842</v>
+      </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1600,7 @@
         <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>24.3358895608491</v>
+        <v>10.480016039602</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1557,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>36.8122002647399</v>
+        <v>29.536762411334</v>
       </c>
       <c r="C39" t="n">
-        <v>14.9071801546735</v>
+        <v>18.6646532945905</v>
       </c>
       <c r="D39" t="n">
-        <v>10.5275016334663</v>
+        <v>15.1502832469133</v>
       </c>
       <c r="E39" t="n">
-        <v>216.237129169565</v>
+        <v>53.3486418095009</v>
       </c>
       <c r="F39" t="n">
-        <v>4952.6343088765</v>
+        <v>79.803192963053</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1578,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>-13.1877997352601</v>
+        <v>-20.463237588666</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1589,18 +1643,20 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>54.3441083882654</v>
+        <v>64.6784595022884</v>
       </c>
       <c r="C40" t="n">
-        <v>18.7023507528535</v>
+        <v>33.9792032033956</v>
       </c>
       <c r="D40" t="n">
-        <v>12.6584615413287</v>
+        <v>25.8711648866503</v>
       </c>
       <c r="E40" t="n">
-        <v>746.75235940102</v>
-      </c>
-      <c r="F40"/>
+        <v>169.966622742446</v>
+      </c>
+      <c r="F40" t="n">
+        <v>385.443447694423</v>
+      </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1664,7 @@
         <v>77</v>
       </c>
       <c r="I40" t="n">
-        <v>-22.6558916117346</v>
+        <v>-12.3215404977116</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1619,18 +1675,20 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>62.2002597442152</v>
+        <v>63.3893872659638</v>
       </c>
       <c r="C41" t="n">
-        <v>20.0444338259029</v>
+        <v>33.4377260138564</v>
       </c>
       <c r="D41" t="n">
-        <v>13.3526378943987</v>
+        <v>25.4919511890755</v>
       </c>
       <c r="E41" t="n">
-        <v>1443.6208452629</v>
-      </c>
-      <c r="F41"/>
+        <v>164.973651416426</v>
+      </c>
+      <c r="F41" t="n">
+        <v>369.196147182243</v>
+      </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1696,7 @@
         <v>119</v>
       </c>
       <c r="I41" t="n">
-        <v>-56.7997402557848</v>
+        <v>-55.6106127340362</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1649,16 +1707,20 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>104.607025700732</v>
+        <v>107.558223127216</v>
       </c>
       <c r="C42" t="n">
-        <v>26.0584199671825</v>
+        <v>48.2014613171604</v>
       </c>
       <c r="D42" t="n">
-        <v>16.4091033995766</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>34.9502517780579</v>
+      </c>
+      <c r="E42" t="n">
+        <v>438.473176921003</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2310.0729660291</v>
+      </c>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1666,7 +1728,7 @@
         <v>171</v>
       </c>
       <c r="I42" t="n">
-        <v>-66.3929742992676</v>
+        <v>-63.4417768727835</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1677,16 +1739,20 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>107.498866412182</v>
+        <v>102.501888633824</v>
       </c>
       <c r="C43" t="n">
-        <v>26.1982912494807</v>
+        <v>46.6008484342858</v>
       </c>
       <c r="D43" t="n">
-        <v>16.4250865168873</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
+        <v>33.9309898804236</v>
+      </c>
+      <c r="E43" t="n">
+        <v>399.025172378428</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1864.29515367594</v>
+      </c>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1694,7 +1760,7 @@
         <v>131</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.5011335878185</v>
+        <v>-28.4981113661763</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1705,16 +1771,20 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>114.058467476989</v>
+        <v>132.899542290512</v>
       </c>
       <c r="C44" t="n">
-        <v>26.7353410259993</v>
+        <v>55.0936162203155</v>
       </c>
       <c r="D44" t="n">
-        <v>16.6343053228393</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+        <v>39.0754736417005</v>
+      </c>
+      <c r="E44" t="n">
+        <v>715.310526066795</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10987.1416706879</v>
+      </c>
       <c r="G44" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1792,7 @@
         <v>169</v>
       </c>
       <c r="I44" t="n">
-        <v>-54.9415325230108</v>
+        <v>-36.1004577094879</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1733,16 +1803,20 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>133.354496086163</v>
+        <v>123.723440214183</v>
       </c>
       <c r="C45" t="n">
-        <v>28.4928703857615</v>
+        <v>52.5343908425817</v>
       </c>
       <c r="D45" t="n">
-        <v>17.4213872105257</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>37.508288070997</v>
+      </c>
+      <c r="E45" t="n">
+        <v>607.67777011087</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5994.11717864153</v>
+      </c>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1824,7 @@
         <v>217</v>
       </c>
       <c r="I45" t="n">
-        <v>-83.6455039138365</v>
+        <v>-93.2765597858166</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1761,16 +1835,20 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>122.897880100701</v>
+        <v>114.722153020684</v>
       </c>
       <c r="C46" t="n">
-        <v>27.2478208859742</v>
+        <v>49.9360239712114</v>
       </c>
       <c r="D46" t="n">
-        <v>16.7744767358778</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46"/>
+        <v>35.9028075635367</v>
+      </c>
+      <c r="E46" t="n">
+        <v>515.451453859199</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3640.61663014606</v>
+      </c>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1856,7 @@
         <v>227</v>
       </c>
       <c r="I46" t="n">
-        <v>-104.102119899299</v>
+        <v>-112.277846979316</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1789,15 +1867,17 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>153.119713612875</v>
+        <v>166.133833162749</v>
       </c>
       <c r="C47" t="n">
-        <v>29.7815764445752</v>
+        <v>62.8999776556857</v>
       </c>
       <c r="D47" t="n">
-        <v>17.9078074298383</v>
-      </c>
-      <c r="E47"/>
+        <v>43.5421086832394</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1341.41542169325</v>
+      </c>
       <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
@@ -1806,7 +1886,7 @@
         <v>215</v>
       </c>
       <c r="I47" t="n">
-        <v>-61.880286387125</v>
+        <v>-48.8661668372506</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1817,16 +1897,20 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>128.065218018601</v>
+        <v>104.799544507609</v>
       </c>
       <c r="C48" t="n">
-        <v>27.3353469625617</v>
+        <v>46.8900179017845</v>
       </c>
       <c r="D48" t="n">
-        <v>16.7105816840731</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>33.9789278400959</v>
+      </c>
+      <c r="E48" t="n">
+        <v>429.071928090226</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2286.13288561183</v>
+      </c>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1834,7 +1918,7 @@
         <v>170</v>
       </c>
       <c r="I48" t="n">
-        <v>-41.9347819813985</v>
+        <v>-65.2004554923912</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1845,18 +1929,20 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>70.2840602960976</v>
+        <v>67.5361333014016</v>
       </c>
       <c r="C49" t="n">
-        <v>20.2957105074703</v>
+        <v>34.5914709941392</v>
       </c>
       <c r="D49" t="n">
-        <v>13.1847335884303</v>
+        <v>26.1178499506126</v>
       </c>
       <c r="E49" t="n">
-        <v>7537.87294016014</v>
-      </c>
-      <c r="F49"/>
+        <v>188.489520067608</v>
+      </c>
+      <c r="F49" t="n">
+        <v>465.548143945986</v>
+      </c>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1864,7 +1950,7 @@
         <v>102</v>
       </c>
       <c r="I49" t="n">
-        <v>-31.7159397039024</v>
+        <v>-34.4638666985984</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Typhus.xlsx
+++ b/outcome/appendix/forecast/Typhus.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Typhus</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase</t>
+    <t xml:space="preserve">Decrease</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease</t>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>42.483937606961</v>
+        <v>67.5516582833352</v>
       </c>
       <c r="C2" t="n">
-        <v>25.8829970570956</v>
+        <v>35.0365644022073</v>
       </c>
       <c r="D2" t="n">
-        <v>20.7469340188118</v>
+        <v>26.639225931371</v>
       </c>
       <c r="E2" t="n">
-        <v>82.2000484417864</v>
+        <v>184.70594148949</v>
       </c>
       <c r="F2" t="n">
-        <v>131.253296164405</v>
+        <v>441.830962387642</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>-16.516062393039</v>
+        <v>8.5516582833352</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>29.0468374764204</v>
+        <v>48.1972282799163</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0692060036855</v>
+        <v>25.3978317526332</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7140678736907</v>
+        <v>19.4082429183669</v>
       </c>
       <c r="E3" t="n">
-        <v>49.2983491042992</v>
+        <v>126.861459151817</v>
       </c>
       <c r="F3" t="n">
-        <v>69.9271744384231</v>
+        <v>287.822740000847</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>-11.9531625235796</v>
+        <v>7.19722827991632</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>63.3010533930753</v>
+        <v>58.8644757215271</v>
       </c>
       <c r="C4" t="n">
-        <v>35.0815208495987</v>
+        <v>28.5361875473842</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2065013865627</v>
+        <v>21.2317727662528</v>
       </c>
       <c r="E4" t="n">
-        <v>147.971115764855</v>
+        <v>190.876662070213</v>
       </c>
       <c r="F4" t="n">
-        <v>289.365552897639</v>
+        <v>598.147630814756</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>34.3010533930753</v>
+        <v>29.8644757215271</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>62.222265606266</v>
+        <v>63.819487343946</v>
       </c>
       <c r="C5" t="n">
-        <v>34.6150730883851</v>
+        <v>29.9019484128006</v>
       </c>
       <c r="D5" t="n">
-        <v>26.879016907675</v>
+        <v>22.0161945398375</v>
       </c>
       <c r="E5" t="n">
-        <v>144.259902337411</v>
+        <v>227.606547268677</v>
       </c>
       <c r="F5" t="n">
-        <v>279.372223751268</v>
+        <v>855.780686376335</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.777734393734043</v>
+        <v>0.819487343945951</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>105.295952450608</v>
+        <v>102.450186003516</v>
       </c>
       <c r="C6" t="n">
-        <v>50.403521689175</v>
+        <v>40.4665353985579</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2970208712449</v>
+        <v>28.3722653718936</v>
       </c>
       <c r="E6" t="n">
-        <v>353.139178585617</v>
+        <v>667.392919659767</v>
       </c>
       <c r="F6" t="n">
-        <v>1192.84562090659</v>
+        <v>39431.6865976858</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,10 +576,10 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>38.2959524506076</v>
+        <v>35.4501860035162</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>100.664894870456</v>
+        <v>104.214269878354</v>
       </c>
       <c r="C7" t="n">
-        <v>48.8220238188133</v>
+        <v>40.847889822255</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2711980664898</v>
+        <v>28.5802447464354</v>
       </c>
       <c r="E7" t="n">
-        <v>325.475586069577</v>
+        <v>702.153627325235</v>
       </c>
       <c r="F7" t="n">
-        <v>1026.2753153693</v>
+        <v>65466.3467908322</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>113</v>
       </c>
       <c r="I7" t="n">
-        <v>-12.3351051295444</v>
+        <v>-8.78573012164638</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>130.522783319104</v>
+        <v>99.8975430191693</v>
       </c>
       <c r="C8" t="n">
-        <v>58.1065813120385</v>
+        <v>39.7813021747354</v>
       </c>
       <c r="D8" t="n">
-        <v>42.0807689119711</v>
+        <v>27.9534706042757</v>
       </c>
       <c r="E8" t="n">
-        <v>546.321614991762</v>
+        <v>628.396089071489</v>
       </c>
       <c r="F8" t="n">
-        <v>3107.24736715949</v>
+        <v>25529.8013572597</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>138</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.47721668089642</v>
+        <v>-38.1024569808307</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -651,20 +651,18 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>121.861640586488</v>
+        <v>114.044764639993</v>
       </c>
       <c r="C9" t="n">
-        <v>55.454428669678</v>
+        <v>43.1272656529721</v>
       </c>
       <c r="D9" t="n">
-        <v>40.4171552453402</v>
+        <v>29.8889482475034</v>
       </c>
       <c r="E9" t="n">
-        <v>475.163649925472</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2234.65209148538</v>
-      </c>
+        <v>908.43638056862</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -672,10 +670,10 @@
         <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>-16.1383594135116</v>
+        <v>-23.9552353600067</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -683,20 +681,18 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>113.272954118469</v>
+        <v>119.538134693175</v>
       </c>
       <c r="C10" t="n">
-        <v>52.7333254488559</v>
+        <v>44.3587607595101</v>
       </c>
       <c r="D10" t="n">
-        <v>38.6932224436642</v>
+        <v>30.5912200828254</v>
       </c>
       <c r="E10" t="n">
-        <v>411.812317580335</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1642.98277069179</v>
-      </c>
+        <v>1048.05757145073</v>
+      </c>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,10 +700,10 @@
         <v>184</v>
       </c>
       <c r="I10" t="n">
-        <v>-70.7270458815312</v>
+        <v>-64.4618653068248</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -715,20 +711,18 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>163.915035005152</v>
+        <v>131.446629075894</v>
       </c>
       <c r="C11" t="n">
-        <v>66.9999970484424</v>
+        <v>46.9163667510861</v>
       </c>
       <c r="D11" t="n">
-        <v>47.3694448478274</v>
+        <v>32.0342217439927</v>
       </c>
       <c r="E11" t="n">
-        <v>938.736476093619</v>
-      </c>
-      <c r="F11" t="n">
-        <v>21453.4257590916</v>
-      </c>
+        <v>1432.71399986916</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,10 +730,10 @@
         <v>192</v>
       </c>
       <c r="I11" t="n">
-        <v>-28.0849649948478</v>
+        <v>-60.5533709241063</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,20 +741,18 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>103.83761796963</v>
+        <v>121.136254993604</v>
       </c>
       <c r="C12" t="n">
-        <v>49.5698321929899</v>
+        <v>44.7100953454703</v>
       </c>
       <c r="D12" t="n">
-        <v>36.6466110026622</v>
+        <v>30.790496382273</v>
       </c>
       <c r="E12" t="n">
-        <v>350.780835880006</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1201.40535745756</v>
-      </c>
+        <v>1092.73814105444</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,10 +760,10 @@
         <v>131</v>
       </c>
       <c r="I12" t="n">
-        <v>-27.1623820303698</v>
+        <v>-9.86374500639563</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +771,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>67.1045511171274</v>
+        <v>67.7345615960105</v>
       </c>
       <c r="C13" t="n">
-        <v>36.3149355700895</v>
+        <v>30.9853323542138</v>
       </c>
       <c r="D13" t="n">
-        <v>27.9364918079381</v>
+        <v>22.6499106948324</v>
       </c>
       <c r="E13" t="n">
-        <v>165.19259369969</v>
+        <v>259.333670650025</v>
       </c>
       <c r="F13" t="n">
-        <v>344.147817487682</v>
+        <v>1138.53289558325</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,10 +792,10 @@
         <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>12.1045511171274</v>
+        <v>12.7345615960105</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -811,19 +803,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>43.2917643929697</v>
+        <v>71.2891794622883</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0275439501915</v>
+        <v>29.0425808928932</v>
       </c>
       <c r="D14" t="n">
-        <v>20.7603416080285</v>
+        <v>20.5309806128998</v>
       </c>
       <c r="E14" t="n">
-        <v>85.8122653691008</v>
+        <v>407.68090758933</v>
       </c>
       <c r="F14" t="n">
-        <v>140.262727502492</v>
+        <v>7933.77709504825</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +824,7 @@
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.70823560703027</v>
+        <v>26.2891794622883</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +835,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>29.444542182848</v>
+        <v>55.4053611128337</v>
       </c>
       <c r="C15" t="n">
-        <v>19.1165826592502</v>
+        <v>24.0352451604506</v>
       </c>
       <c r="D15" t="n">
-        <v>15.6839876570627</v>
+        <v>17.2934660226783</v>
       </c>
       <c r="E15" t="n">
-        <v>50.8776209351276</v>
+        <v>251.202949547056</v>
       </c>
       <c r="F15" t="n">
-        <v>73.2606505114094</v>
+        <v>1746.94354267323</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +856,7 @@
         <v>37</v>
       </c>
       <c r="I15" t="n">
-        <v>-7.55545781715196</v>
+        <v>18.4053611128337</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +867,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>64.4183747340511</v>
+        <v>64.4127771526266</v>
       </c>
       <c r="C16" t="n">
-        <v>35.1006732989466</v>
+        <v>26.2153906734983</v>
       </c>
       <c r="D16" t="n">
-        <v>27.0622764747335</v>
+        <v>18.5255909335007</v>
       </c>
       <c r="E16" t="n">
-        <v>156.134466761537</v>
+        <v>369.524504345496</v>
       </c>
       <c r="F16" t="n">
-        <v>318.962251270866</v>
+        <v>7329.76165513239</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +888,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>29.4183747340511</v>
+        <v>29.4127771526266</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +899,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>63.1694062787162</v>
+        <v>68.3806630486818</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5498796117282</v>
+        <v>27.1222810780384</v>
       </c>
       <c r="D17" t="n">
-        <v>26.6705151716153</v>
+        <v>19.0317542227696</v>
       </c>
       <c r="E17" t="n">
-        <v>151.824783787052</v>
+        <v>436.351575500826</v>
       </c>
       <c r="F17" t="n">
-        <v>306.937739347118</v>
+        <v>20387.866919428</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +920,10 @@
         <v>105</v>
       </c>
       <c r="I17" t="n">
-        <v>-41.8305937212838</v>
+        <v>-36.6193369513182</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,20 +931,18 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>107.131092334402</v>
+        <v>95.7247294586287</v>
       </c>
       <c r="C18" t="n">
-        <v>50.1598934267897</v>
+        <v>33.1165895492427</v>
       </c>
       <c r="D18" t="n">
-        <v>36.8625617742032</v>
+        <v>22.4290298407447</v>
       </c>
       <c r="E18" t="n">
-        <v>382.57371753767</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1467.43541081738</v>
-      </c>
+        <v>1267.12618384637</v>
+      </c>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,10 +950,10 @@
         <v>111</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.8689076655978</v>
+        <v>-15.2752705413713</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -971,20 +961,18 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>102.155731859707</v>
+        <v>96.848925366998</v>
       </c>
       <c r="C19" t="n">
-        <v>48.4820548034299</v>
+        <v>33.3256692780377</v>
       </c>
       <c r="D19" t="n">
-        <v>35.7741257579884</v>
+        <v>22.5405979620319</v>
       </c>
       <c r="E19" t="n">
-        <v>350.648833097442</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1239.02330523473</v>
-      </c>
+        <v>1329.85010792135</v>
+      </c>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,10 +980,10 @@
         <v>112</v>
       </c>
       <c r="I19" t="n">
-        <v>-9.84426814029327</v>
+        <v>-15.151074633002</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1003,20 +991,18 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>132.451673480066</v>
+        <v>94.0812148608205</v>
       </c>
       <c r="C20" t="n">
-        <v>57.5427801778409</v>
+        <v>32.7694068647617</v>
       </c>
       <c r="D20" t="n">
-        <v>41.3729546016489</v>
+        <v>22.2312453907756</v>
       </c>
       <c r="E20" t="n">
-        <v>601.542700464089</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4418.42810824957</v>
-      </c>
+        <v>1190.49773138701</v>
+      </c>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1010,7 @@
         <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>31.4516734800665</v>
+        <v>-6.91878513917946</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,20 +1021,18 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>123.373234582624</v>
+        <v>102.951099437125</v>
       </c>
       <c r="C21" t="n">
-        <v>54.8296248812924</v>
+        <v>34.4999097123721</v>
       </c>
       <c r="D21" t="n">
-        <v>39.6787342300148</v>
+        <v>23.184138131829</v>
       </c>
       <c r="E21" t="n">
-        <v>518.521158680338</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2981.51945123118</v>
-      </c>
+        <v>1714.51921317001</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,10 +1040,10 @@
         <v>143</v>
       </c>
       <c r="I21" t="n">
-        <v>-19.6267654173757</v>
+        <v>-40.0489005628753</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1067,20 +1051,18 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>114.449971215933</v>
+        <v>106.247657150447</v>
       </c>
       <c r="C22" t="n">
-        <v>52.0738844580203</v>
+        <v>35.1179479330974</v>
       </c>
       <c r="D22" t="n">
-        <v>37.9425096074217</v>
+        <v>23.5211480199042</v>
       </c>
       <c r="E22" t="n">
-        <v>445.778739553509</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2088.9848672708</v>
-      </c>
+        <v>1974.71998132209</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,10 +1070,10 @@
         <v>211</v>
       </c>
       <c r="I22" t="n">
-        <v>-96.5500287840666</v>
+        <v>-104.752342849553</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,20 +1081,18 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>165.716910956204</v>
+        <v>113.138561128076</v>
       </c>
       <c r="C23" t="n">
-        <v>65.9551250585478</v>
+        <v>36.3704409173277</v>
       </c>
       <c r="D23" t="n">
-        <v>46.2855227477224</v>
+        <v>24.199222398965</v>
       </c>
       <c r="E23" t="n">
-        <v>1060.73260653855</v>
-      </c>
-      <c r="F23" t="n">
-        <v>70970.3913459233</v>
-      </c>
+        <v>2688.89276105121</v>
+      </c>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,10 +1100,10 @@
         <v>190</v>
       </c>
       <c r="I23" t="n">
-        <v>-24.2830890437958</v>
+        <v>-76.8614388719242</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1131,20 +1111,18 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>104.619269850839</v>
+        <v>107.192247431598</v>
       </c>
       <c r="C24" t="n">
-        <v>48.8502811141868</v>
+        <v>35.2925672032523</v>
       </c>
       <c r="D24" t="n">
-        <v>35.8663017981437</v>
+        <v>23.6160263067854</v>
       </c>
       <c r="E24" t="n">
-        <v>376.349282500479</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1465.922825237</v>
-      </c>
+        <v>2057.81184762597</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,10 +1130,10 @@
         <v>155</v>
       </c>
       <c r="I24" t="n">
-        <v>-50.3807301491611</v>
+        <v>-47.8077525684023</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1163,19 +1141,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>67.4553923421311</v>
+        <v>71.4289214612762</v>
       </c>
       <c r="C25" t="n">
-        <v>35.8328038742594</v>
+        <v>27.8133701111051</v>
       </c>
       <c r="D25" t="n">
-        <v>27.3906107365095</v>
+        <v>19.4198409185128</v>
       </c>
       <c r="E25" t="n">
-        <v>173.030024130544</v>
+        <v>494.263380292482</v>
       </c>
       <c r="F25" t="n">
-        <v>380.055889355843</v>
+        <v>72937.3870035451</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,10 +1162,10 @@
         <v>91</v>
       </c>
       <c r="I25" t="n">
-        <v>-23.5446076578689</v>
+        <v>-19.5710785387238</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1195,20 +1173,18 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>43.4495955316012</v>
+        <v>74.134534921708</v>
       </c>
       <c r="C26" t="n">
-        <v>25.7172521873932</v>
+        <v>27.3214077560293</v>
       </c>
       <c r="D26" t="n">
-        <v>20.3938322870397</v>
+        <v>18.8004261635</v>
       </c>
       <c r="E26" t="n">
-        <v>88.6407320002952</v>
-      </c>
-      <c r="F26" t="n">
-        <v>149.077976558068</v>
-      </c>
+        <v>671.193243863572</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1192,7 @@
         <v>63</v>
       </c>
       <c r="I26" t="n">
-        <v>-19.5504044683988</v>
+        <v>11.134534921708</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1203,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>29.5218717478894</v>
+        <v>61.5646070884729</v>
       </c>
       <c r="C27" t="n">
-        <v>18.9103442202254</v>
+        <v>24.107168582268</v>
       </c>
       <c r="D27" t="n">
-        <v>15.4321197327768</v>
+        <v>16.8551160985047</v>
       </c>
       <c r="E27" t="n">
-        <v>52.1396868696109</v>
+        <v>414.946478335077</v>
       </c>
       <c r="F27" t="n">
-        <v>76.4894653047436</v>
+        <v>38569.2677926091</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1224,7 @@
         <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>-8.47812825211059</v>
+        <v>23.5646070884729</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,20 +1235,18 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64.6364385164554</v>
+        <v>68.8472085868962</v>
       </c>
       <c r="C28" t="n">
-        <v>34.5779049493661</v>
+        <v>25.6904147381491</v>
       </c>
       <c r="D28" t="n">
-        <v>26.4906068157531</v>
+        <v>17.7343767427005</v>
       </c>
       <c r="E28" t="n">
-        <v>163.079319124587</v>
-      </c>
-      <c r="F28" t="n">
-        <v>350.429272535889</v>
-      </c>
+        <v>583.761537020145</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1254,10 @@
         <v>36</v>
       </c>
       <c r="I28" t="n">
-        <v>28.6364385164554</v>
+        <v>32.8472085868962</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,20 +1265,18 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>63.3538581753449</v>
+        <v>71.9250009834859</v>
       </c>
       <c r="C29" t="n">
-        <v>34.023818809584</v>
+        <v>26.3302392925697</v>
       </c>
       <c r="D29" t="n">
-        <v>26.0988822877521</v>
+        <v>18.0862504529435</v>
       </c>
       <c r="E29" t="n">
-        <v>158.414892339562</v>
-      </c>
-      <c r="F29" t="n">
-        <v>336.450933465936</v>
-      </c>
+        <v>674.803334742854</v>
+      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,10 +1284,10 @@
         <v>89</v>
       </c>
       <c r="I29" t="n">
-        <v>-25.6461418246551</v>
+        <v>-17.0749990165141</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1323,20 +1295,18 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>107.489214231109</v>
+        <v>91.3511892616704</v>
       </c>
       <c r="C30" t="n">
-        <v>49.2195240433299</v>
+        <v>30.2147999063568</v>
       </c>
       <c r="D30" t="n">
-        <v>35.9237740224773</v>
+        <v>20.237383220619</v>
       </c>
       <c r="E30" t="n">
-        <v>409.955744971588</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1823.6794725827</v>
-      </c>
+        <v>1684.37810009286</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,10 +1314,10 @@
         <v>144</v>
       </c>
       <c r="I30" t="n">
-        <v>-36.5107857688911</v>
+        <v>-52.6488107383296</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1355,20 +1325,18 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>102.445983510433</v>
+        <v>92.0920935719484</v>
       </c>
       <c r="C31" t="n">
-        <v>47.5696569031971</v>
+        <v>30.3466156676534</v>
       </c>
       <c r="D31" t="n">
-        <v>34.8626638489622</v>
+        <v>20.3074827735788</v>
       </c>
       <c r="E31" t="n">
-        <v>374.365740888368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1508.61317824542</v>
-      </c>
+        <v>1751.18642165633</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,10 +1344,10 @@
         <v>124</v>
       </c>
       <c r="I31" t="n">
-        <v>-21.5540164895675</v>
+        <v>-31.9079064280516</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,20 +1355,18 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>132.827210419949</v>
+        <v>90.2606625885496</v>
       </c>
       <c r="C32" t="n">
-        <v>56.3428421285681</v>
+        <v>30.0037806434074</v>
       </c>
       <c r="D32" t="n">
-        <v>40.2276702687425</v>
+        <v>20.1202608213487</v>
       </c>
       <c r="E32" t="n">
-        <v>656.261974357372</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6648.63135813715</v>
-      </c>
+        <v>1598.14797113121</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,10 +1374,10 @@
         <v>179</v>
       </c>
       <c r="I32" t="n">
-        <v>-46.172789580051</v>
+        <v>-88.7393374114504</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,20 +1385,18 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>123.666900767321</v>
+        <v>96.0447174824668</v>
       </c>
       <c r="C33" t="n">
-        <v>53.6972612948195</v>
+        <v>31.0646093921129</v>
       </c>
       <c r="D33" t="n">
-        <v>38.5912903834481</v>
+        <v>20.695735017252</v>
       </c>
       <c r="E33" t="n">
-        <v>561.58581002027</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4117.9882565865</v>
-      </c>
+        <v>2150.14047299997</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,10 +1404,10 @@
         <v>205</v>
       </c>
       <c r="I33" t="n">
-        <v>-81.3330992326787</v>
+        <v>-108.955282517533</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,20 +1415,18 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>114.678223157111</v>
+        <v>98.1333788885159</v>
       </c>
       <c r="C34" t="n">
-        <v>51.0129970854824</v>
+        <v>31.4370543735076</v>
       </c>
       <c r="D34" t="n">
-        <v>36.9162368294901</v>
+        <v>20.8964226352042</v>
       </c>
       <c r="E34" t="n">
-        <v>479.566278687264</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2714.8620101827</v>
-      </c>
+        <v>2404.92569658384</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,10 +1434,10 @@
         <v>174</v>
       </c>
       <c r="I34" t="n">
-        <v>-59.3217768428893</v>
+        <v>-75.8666211114841</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1483,20 +1445,18 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>166.066536163247</v>
+        <v>102.399665873392</v>
       </c>
       <c r="C35" t="n">
-        <v>64.4277756928381</v>
+        <v>32.1816683916072</v>
       </c>
       <c r="D35" t="n">
-        <v>44.896551179552</v>
+        <v>21.29569083573</v>
       </c>
       <c r="E35" t="n">
-        <v>1191.87076986178</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2676911.68143925</v>
-      </c>
+        <v>3052.77436149948</v>
+      </c>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1464,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>48.0665361632468</v>
+        <v>-15.6003341266081</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,20 +1475,18 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>104.770460516026</v>
+        <v>98.7260513439538</v>
       </c>
       <c r="C36" t="n">
-        <v>47.8683604978715</v>
+        <v>31.5417106437133</v>
       </c>
       <c r="D36" t="n">
-        <v>34.9100972652039</v>
+        <v>20.952678570907</v>
       </c>
       <c r="E36" t="n">
-        <v>402.002125083013</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1813.64883723265</v>
-      </c>
+        <v>2483.95521824992</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,10 +1494,10 @@
         <v>116</v>
       </c>
       <c r="I36" t="n">
-        <v>-11.2295394839739</v>
+        <v>-17.2739486560462</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1547,20 +1505,18 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>67.5231116489102</v>
+        <v>74.239735175791</v>
       </c>
       <c r="C37" t="n">
-        <v>35.2099903250071</v>
+        <v>26.80720955105</v>
       </c>
       <c r="D37" t="n">
-        <v>26.7455295143832</v>
+        <v>18.3493021238455</v>
       </c>
       <c r="E37" t="n">
-        <v>180.680358331633</v>
-      </c>
-      <c r="F37" t="n">
-        <v>420.214242293907</v>
-      </c>
+        <v>752.048580207374</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1568,10 +1524,10 @@
         <v>36</v>
       </c>
       <c r="I37" t="n">
-        <v>31.5231116489102</v>
+        <v>38.239735175791</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1579,20 +1535,18 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>43.480016039602</v>
+        <v>76.2597881669769</v>
       </c>
       <c r="C38" t="n">
-        <v>25.3338034838532</v>
+        <v>26.7249760711064</v>
       </c>
       <c r="D38" t="n">
-        <v>19.9733714279774</v>
+        <v>18.1545657636912</v>
       </c>
       <c r="E38" t="n">
-        <v>91.3648632829238</v>
-      </c>
-      <c r="F38" t="n">
-        <v>158.370722061842</v>
-      </c>
+        <v>925.163708770017</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1600,10 +1554,10 @@
         <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>10.480016039602</v>
+        <v>43.2597881669769</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1611,20 +1565,18 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>29.536762411334</v>
+        <v>66.5904667851651</v>
       </c>
       <c r="C39" t="n">
-        <v>18.6646532945905</v>
+        <v>24.5274509540526</v>
       </c>
       <c r="D39" t="n">
-        <v>15.1502832469133</v>
+        <v>16.8733744002675</v>
       </c>
       <c r="E39" t="n">
-        <v>53.3486418095009</v>
-      </c>
-      <c r="F39" t="n">
-        <v>79.803192963053</v>
-      </c>
+        <v>603.922613018141</v>
+      </c>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1584,7 @@
         <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>-20.463237588666</v>
+        <v>16.5904667851651</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,20 +1595,18 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>64.6784595022884</v>
+        <v>72.282016213091</v>
       </c>
       <c r="C40" t="n">
-        <v>33.9792032033956</v>
+        <v>25.6897067994807</v>
       </c>
       <c r="D40" t="n">
-        <v>25.8711648866503</v>
+        <v>17.5125733775199</v>
       </c>
       <c r="E40" t="n">
-        <v>169.966622742446</v>
-      </c>
-      <c r="F40" t="n">
-        <v>385.443447694423</v>
-      </c>
+        <v>803.208018683111</v>
+      </c>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1664,10 +1614,10 @@
         <v>77</v>
       </c>
       <c r="I40" t="n">
-        <v>-12.3215404977116</v>
+        <v>-4.71798378690897</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,20 +1625,18 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63.3893872659638</v>
+        <v>74.6125025451444</v>
       </c>
       <c r="C41" t="n">
-        <v>33.4377260138564</v>
+        <v>26.1498827405862</v>
       </c>
       <c r="D41" t="n">
-        <v>25.4919511890755</v>
+        <v>17.7638232630661</v>
       </c>
       <c r="E41" t="n">
-        <v>164.973651416426</v>
-      </c>
-      <c r="F41" t="n">
-        <v>369.196147182243</v>
-      </c>
+        <v>904.413027857555</v>
+      </c>
+      <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1696,10 +1644,10 @@
         <v>119</v>
       </c>
       <c r="I41" t="n">
-        <v>-55.6106127340362</v>
+        <v>-44.3874974548556</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1707,20 +1655,18 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>107.558223127216</v>
+        <v>88.4294531866376</v>
       </c>
       <c r="C42" t="n">
-        <v>48.2014613171604</v>
+        <v>28.7961445715139</v>
       </c>
       <c r="D42" t="n">
-        <v>34.9502517780579</v>
+        <v>19.2139209138178</v>
       </c>
       <c r="E42" t="n">
-        <v>438.473176921003</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2310.0729660291</v>
-      </c>
+        <v>1859.78995930677</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1728,10 +1674,10 @@
         <v>171</v>
       </c>
       <c r="I42" t="n">
-        <v>-63.4417768727835</v>
+        <v>-82.5705468133624</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1739,20 +1685,18 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>102.501888633824</v>
+        <v>88.928899150682</v>
       </c>
       <c r="C43" t="n">
-        <v>46.6008484342858</v>
+        <v>28.8841696528489</v>
       </c>
       <c r="D43" t="n">
-        <v>33.9309898804236</v>
+        <v>19.2608252850456</v>
       </c>
       <c r="E43" t="n">
-        <v>399.025172378428</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1864.29515367594</v>
-      </c>
+        <v>1913.81640409117</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1760,10 +1704,10 @@
         <v>131</v>
       </c>
       <c r="I43" t="n">
-        <v>-28.4981113661763</v>
+        <v>-42.071100849318</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1771,20 +1715,18 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>132.899542290512</v>
+        <v>87.6909240376985</v>
       </c>
       <c r="C44" t="n">
-        <v>55.0936162203155</v>
+        <v>28.6582595293782</v>
       </c>
       <c r="D44" t="n">
-        <v>39.0754736417005</v>
+        <v>19.1382692017874</v>
       </c>
       <c r="E44" t="n">
-        <v>715.310526066795</v>
-      </c>
-      <c r="F44" t="n">
-        <v>10987.1416706879</v>
-      </c>
+        <v>1787.08863785121</v>
+      </c>
+      <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
       </c>
@@ -1792,10 +1734,10 @@
         <v>169</v>
       </c>
       <c r="I44" t="n">
-        <v>-36.1004577094879</v>
+        <v>-81.3090759623015</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1803,20 +1745,18 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>123.723440214183</v>
+        <v>91.5624914146849</v>
       </c>
       <c r="C45" t="n">
-        <v>52.5343908425817</v>
+        <v>29.3548008612613</v>
       </c>
       <c r="D45" t="n">
-        <v>37.508288070997</v>
+        <v>19.5144115654035</v>
       </c>
       <c r="E45" t="n">
-        <v>607.67777011087</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5994.11717864153</v>
-      </c>
+        <v>2224.09585860771</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1824,10 +1764,10 @@
         <v>217</v>
       </c>
       <c r="I45" t="n">
-        <v>-93.2765597858166</v>
+        <v>-125.437508585315</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1835,20 +1775,18 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>114.722153020684</v>
+        <v>92.9336849608397</v>
       </c>
       <c r="C46" t="n">
-        <v>49.9360239712114</v>
+        <v>29.5966848850204</v>
       </c>
       <c r="D46" t="n">
-        <v>35.9028075635367</v>
+        <v>19.6444234043009</v>
       </c>
       <c r="E46" t="n">
-        <v>515.451453859199</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3640.61663014606</v>
-      </c>
+        <v>2409.8278283154</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1856,10 +1794,10 @@
         <v>227</v>
       </c>
       <c r="I46" t="n">
-        <v>-112.277846979316</v>
+        <v>-134.06631503916</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1867,16 +1805,16 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>166.133833162749</v>
+        <v>95.6922052024753</v>
       </c>
       <c r="C47" t="n">
-        <v>62.8999776556857</v>
+        <v>30.0761503278109</v>
       </c>
       <c r="D47" t="n">
-        <v>43.5421086832394</v>
+        <v>19.9012678415065</v>
       </c>
       <c r="E47" t="n">
-        <v>1341.41542169325</v>
+        <v>2845.89488819754</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="s">
@@ -1886,10 +1824,10 @@
         <v>215</v>
       </c>
       <c r="I47" t="n">
-        <v>-48.8661668372506</v>
+        <v>-119.307794797525</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1897,20 +1835,18 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>104.799544507609</v>
+        <v>93.3202589694967</v>
       </c>
       <c r="C48" t="n">
-        <v>46.8900179017845</v>
+        <v>29.6644177176644</v>
       </c>
       <c r="D48" t="n">
-        <v>33.9789278400959</v>
+        <v>19.6807685813884</v>
       </c>
       <c r="E48" t="n">
-        <v>429.071928090226</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2286.13288561183</v>
-      </c>
+        <v>2465.6605365728</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1918,10 +1854,10 @@
         <v>170</v>
       </c>
       <c r="I48" t="n">
-        <v>-65.2004554923912</v>
+        <v>-76.6797410305033</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1929,20 +1865,18 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>67.5361333014016</v>
+        <v>76.3376955106333</v>
       </c>
       <c r="C49" t="n">
-        <v>34.5914709941392</v>
+        <v>26.4880306861938</v>
       </c>
       <c r="D49" t="n">
-        <v>26.1178499506126</v>
+        <v>17.9487243663882</v>
       </c>
       <c r="E49" t="n">
-        <v>188.489520067608</v>
-      </c>
-      <c r="F49" t="n">
-        <v>465.548143945986</v>
-      </c>
+        <v>987.672195947598</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1950,10 +1884,10 @@
         <v>102</v>
       </c>
       <c r="I49" t="n">
-        <v>-34.4638666985984</v>
+        <v>-25.6623044893667</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
